--- a/Process Results/Unified_IBNP_SLI.xlsx
+++ b/Process Results/Unified_IBNP_SLI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C11B858E-FF24-41D6-B307-37BF32FE3D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C54E428-9D50-4229-A7DE-9960EC2912F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Completion Factors" sheetId="1" r:id="rId1"/>
@@ -2926,7 +2926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -4879,8 +4879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:AR54"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
@@ -7196,21 +7196,21 @@
       </c>
       <c r="F29" s="13">
         <f>ROUND(+I29*J29/100,0)-D29-B29</f>
-        <v>-19835.210418333332</v>
+        <v>-17977.210418333332</v>
       </c>
       <c r="G29" s="13">
         <f t="shared" si="3"/>
-        <v>3251</v>
+        <v>5109</v>
       </c>
       <c r="H29" s="14">
         <f t="shared" si="4"/>
-        <v>270</v>
+        <v>2128</v>
       </c>
       <c r="I29" s="13">
         <v>9289.930833333332</v>
       </c>
       <c r="J29" s="19">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K29" s="13">
         <f t="shared" si="6"/>
@@ -7218,15 +7218,15 @@
       </c>
       <c r="L29" s="13">
         <f t="shared" si="7"/>
-        <v>2.9114941383219843</v>
+        <v>22.911494138321984</v>
       </c>
       <c r="M29" s="13">
         <f t="shared" si="9"/>
-        <v>9.7116012298149119</v>
+        <v>11.316143183175189</v>
       </c>
       <c r="N29" s="18">
         <f t="shared" si="10"/>
-        <v>12.878533181818181</v>
+        <v>20.237694999999999</v>
       </c>
       <c r="O29" s="18">
         <f t="shared" si="11"/>
@@ -7286,21 +7286,21 @@
       </c>
       <c r="F30" s="13">
         <f>ROUND(+I30*J30/100,0)-D30-B30</f>
-        <v>3246</v>
+        <v>4638</v>
       </c>
       <c r="G30" s="13">
         <f t="shared" si="3"/>
-        <v>3246</v>
+        <v>4638</v>
       </c>
       <c r="H30" s="14">
         <f t="shared" si="4"/>
-        <v>3246</v>
+        <v>4638</v>
       </c>
       <c r="I30" s="13">
         <v>9275.0475000000006</v>
       </c>
       <c r="J30" s="19">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K30" s="13">
         <f t="shared" si="6"/>
@@ -7308,15 +7308,15 @@
       </c>
       <c r="L30" s="13">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M30" s="13">
         <f t="shared" si="9"/>
-        <v>9.9291920064974413</v>
+        <v>12.753687748548383</v>
       </c>
       <c r="N30" s="18">
         <f t="shared" si="10"/>
-        <v>1.1420503754887223</v>
+        <v>1.6315005364124606</v>
       </c>
       <c r="O30" s="18">
         <f t="shared" si="11"/>
@@ -7374,21 +7374,21 @@
       </c>
       <c r="F31" s="13">
         <f>ROUND(+I31*J31/100,0)-D31-B31</f>
-        <v>3216</v>
+        <v>4595</v>
       </c>
       <c r="G31" s="13">
         <f t="shared" si="3"/>
-        <v>3216</v>
+        <v>4595</v>
       </c>
       <c r="H31" s="14">
         <f t="shared" si="4"/>
-        <v>3216</v>
+        <v>4595</v>
       </c>
       <c r="I31" s="13">
         <v>9189.5575000000008</v>
       </c>
       <c r="J31" s="19">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K31" s="13">
         <f t="shared" si="6"/>
@@ -7396,15 +7396,15 @@
       </c>
       <c r="L31" s="13">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M31" s="13">
         <f t="shared" si="9"/>
-        <v>11.899222075767607</v>
+        <v>15.949033443270535</v>
       </c>
       <c r="N31" s="18">
         <f t="shared" si="10"/>
-        <v>3.3494744791666666</v>
+        <v>4.7849635416666665</v>
       </c>
       <c r="O31" s="18">
         <f t="shared" si="11"/>
@@ -7483,12 +7483,12 @@
       <c r="G33" s="13"/>
       <c r="H33" s="14">
         <f>SUM(H8:H31)</f>
-        <v>9900.0036</v>
+        <v>14529.0036</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="22">
         <f>SUM(G20:G31)/SUM(I20:I31)</f>
-        <v>0.11899222075767607</v>
+        <v>0.15949033443270536</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -7527,7 +7527,7 @@
       <c r="F36" s="23"/>
       <c r="H36" s="25">
         <f>H33*(1+H35)</f>
-        <v>10642.50387</v>
+        <v>15618.67887</v>
       </c>
       <c r="I36" s="26"/>
       <c r="J36" s="27" t="e">

--- a/Process Results/Unified_IBNP_SLI.xlsx
+++ b/Process Results/Unified_IBNP_SLI.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C54E428-9D50-4229-A7DE-9960EC2912F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBAC2819-3D77-4D49-BA11-B93FB936C999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Completion Factors" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="Plot Patterns" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -47,7 +48,7 @@
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1" calcOnSave="0"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -71,7 +72,7 @@
     <author>Kevin Krebs</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
   <si>
     <t>Paid Percentages</t>
   </si>
@@ -168,6 +169,36 @@
   </si>
   <si>
     <t>---</t>
+  </si>
+  <si>
+    <t>Cumulative Development</t>
+  </si>
+  <si>
+    <t>Volume All</t>
+  </si>
+  <si>
+    <t>Volume 12</t>
+  </si>
+  <si>
+    <t>Volume 6</t>
+  </si>
+  <si>
+    <t>Volume 3</t>
+  </si>
+  <si>
+    <t>Simple All</t>
+  </si>
+  <si>
+    <t>Simple 12</t>
+  </si>
+  <si>
+    <t>Simple 6</t>
+  </si>
+  <si>
+    <t>Simple 3</t>
+  </si>
+  <si>
+    <t>Incremental Pattern</t>
   </si>
   <si>
     <t>Raw</t>
@@ -272,7 +303,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +345,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -423,7 +462,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -469,6 +508,11 @@
     <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,6 +541,3922 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cumulative Development</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$B$2:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.73842471889579087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73842471889579087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73842471889579087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73842471889579087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73842471889579087</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73842471889579087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73842471889579087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75498132694278175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75498132694278175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75498132694278175</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75498132694278175</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBC6-4E76-B306-10C4CEC7576C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$C$2:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.63260020845356602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63260020845356602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63260020845356602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63260020845356602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63260020845356602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63260020845356602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63260020845356602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66633139041954148</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66633139041954148</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66633139041954148</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66633139041954148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBC6-4E76-B306-10C4CEC7576C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBC6-4E76-B306-10C4CEC7576C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$E$2:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FBC6-4E76-B306-10C4CEC7576C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$F$2:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.41290295941744543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41290295941744543</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41290295941744543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41290295941744543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41290295941744543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41290295941744543</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41290295941744543</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46451582934462621</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46451582934462621</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46451582934462621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46451582934462621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FBC6-4E76-B306-10C4CEC7576C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$G$2:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.34520524301010752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34520524301010752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34520524301010752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34520524301010752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34520524301010752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34520524301010752</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34520524301010752</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43150655376263441</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43150655376263441</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43150655376263441</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43150655376263441</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FBC6-4E76-B306-10C4CEC7576C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$H$2:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FBC6-4E76-B306-10C4CEC7576C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$I$2:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FBC6-4E76-B306-10C4CEC7576C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$J$2:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-FBC6-4E76-B306-10C4CEC7576C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1346587632"/>
+        <c:axId val="1346584272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1346587632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1346584272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1346584272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1346587632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Incremental Pattern</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$N$2:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.022421524663677</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3245360703812319</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1604-48C4-9471-810AEECE5A66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$O$2:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.053321484114641</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.500754751131222</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1604-48C4-9471-810AEECE5A66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$P$2:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1604-48C4-9471-810AEECE5A66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$Q$2:$Q$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1604-48C4-9471-810AEECE5A66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$R$2:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1527791666666669</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1604-48C4-9471-810AEECE5A66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$S$2:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3174619047619052</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1604-48C4-9471-810AEECE5A66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$T$2:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1604-48C4-9471-810AEECE5A66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$U$2:$U$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1604-48C4-9471-810AEECE5A66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plot Patterns'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plot Patterns'!$V$2:$V$24</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1604-48C4-9471-810AEECE5A66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1346587632"/>
+        <c:axId val="1346584272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1346587632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1346584272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1346584272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1346587632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>20638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>169863</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2610,7 +6570,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2618,34 +6578,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -2948,18 +6908,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -3112,24 +7072,24 @@
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>8.9108822664532017E-2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5">
-        <v>0.23437481689467429</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5">
-        <v>0.13905815018114781</v>
+        <v>0.63260020845356602</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" ref="H7:H29" si="3">+I7/I8</f>
         <v>1</v>
       </c>
       <c r="I7" s="5">
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" ref="J7:J30" si="4">I7</f>
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3150,24 +7110,24 @@
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>8.9108822664532017E-2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5">
-        <v>0.23437481689467429</v>
+        <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>0.13905815018114781</v>
+        <v>0.63260020845356602</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I8" s="5">
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="4"/>
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3188,24 +7148,24 @@
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>8.9108822664532017E-2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>0.23437481689467429</v>
+        <v>1</v>
       </c>
       <c r="G9" s="5">
-        <v>0.13905815018114781</v>
+        <v>0.63260020845356602</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="4"/>
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3226,24 +7186,24 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>8.9108822664532017E-2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="5">
-        <v>0.23437481689467429</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5">
-        <v>0.13905815018114781</v>
+        <v>0.63260020845356602</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I10" s="5">
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="4"/>
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3264,24 +7224,24 @@
         <v>1</v>
       </c>
       <c r="E11" s="5">
-        <v>8.9108822664532017E-2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5">
-        <v>0.23437481689467429</v>
+        <v>1</v>
       </c>
       <c r="G11" s="5">
-        <v>0.13905815018114781</v>
+        <v>0.63260020845356602</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I11" s="5">
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="4"/>
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3302,24 +7262,24 @@
         <v>1</v>
       </c>
       <c r="E12" s="5">
-        <v>8.9108822664532017E-2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5">
-        <v>0.23437481689467429</v>
+        <v>1</v>
       </c>
       <c r="G12" s="5">
-        <v>0.13905815018114781</v>
+        <v>0.63260020845356602</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I12" s="5">
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="4"/>
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3329,35 +7289,35 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
-        <v>0.50000000000000011</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="1"/>
-        <v>0.66666666666666674</v>
+        <v>1</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="2"/>
-        <v>0.87500000000000033</v>
+        <v>0.94937776840329058</v>
       </c>
       <c r="E13" s="5">
-        <v>8.9108822664532017E-2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="5">
-        <v>0.23437481689467429</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5">
-        <v>0.13905815018114781</v>
+        <v>0.63260020845356602</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="3"/>
-        <v>0.54591104039859939</v>
+        <v>1</v>
       </c>
       <c r="I13" s="5">
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" si="4"/>
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3375,27 +7335,27 @@
       </c>
       <c r="D14" s="4">
         <f t="shared" si="2"/>
-        <v>0.30548665253528362</v>
+        <v>1</v>
       </c>
       <c r="E14" s="5">
-        <v>0.17821764532906401</v>
+        <v>1</v>
       </c>
       <c r="F14" s="5">
-        <v>0.35156222534201143</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5">
-        <v>0.15892360020702601</v>
+        <v>0.66633139041954148</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I14" s="5">
-        <v>0.2365306628495874</v>
+        <v>1</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" si="4"/>
-        <v>0.2365306628495874</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3416,24 +7376,24 @@
         <v>1</v>
       </c>
       <c r="E15" s="5">
-        <v>0.17821764532906401</v>
+        <v>1</v>
       </c>
       <c r="F15" s="5">
-        <v>0.35156222534201143</v>
+        <v>1</v>
       </c>
       <c r="G15" s="5">
-        <v>0.52023091316132175</v>
+        <v>0.66633139041954148</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I15" s="5">
-        <v>0.2365306628495874</v>
+        <v>1</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" si="4"/>
-        <v>0.2365306628495874</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3454,24 +7414,24 @@
         <v>1</v>
       </c>
       <c r="E16" s="5">
-        <v>0.17821764532906401</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5">
-        <v>0.35156222534201143</v>
+        <v>1</v>
       </c>
       <c r="G16" s="5">
-        <v>0.52023091316132175</v>
+        <v>0.66633139041954148</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I16" s="5">
-        <v>0.2365306628495874</v>
+        <v>1</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" si="4"/>
-        <v>0.2365306628495874</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3481,35 +7441,35 @@
       </c>
       <c r="B17" s="4">
         <f t="shared" si="0"/>
-        <v>0.17821764532906401</v>
+        <v>1</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="1"/>
-        <v>0.35156222534201143</v>
+        <v>1</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="2"/>
-        <v>0.52023091316132175</v>
+        <v>0.66633139041954148</v>
       </c>
       <c r="E17" s="5">
-        <v>0.17821764532906401</v>
+        <v>1</v>
       </c>
       <c r="F17" s="5">
-        <v>0.35156222534201143</v>
+        <v>1</v>
       </c>
       <c r="G17" s="5">
-        <v>0.52023091316132175</v>
+        <v>0.66633139041954148</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="3"/>
-        <v>0.2365306628495874</v>
+        <v>1</v>
       </c>
       <c r="I17" s="5">
-        <v>0.2365306628495874</v>
+        <v>1</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" si="4"/>
-        <v>0.2365306628495874</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4167,23 +8127,57 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4">
+        <v>1</v>
+      </c>
+      <c r="N38" s="4">
+        <v>1</v>
+      </c>
+      <c r="O38" s="4">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>1</v>
+      </c>
+      <c r="R38" s="4">
+        <v>1</v>
+      </c>
+      <c r="S38" s="4">
+        <v>1</v>
+      </c>
+      <c r="T38" s="4">
+        <v>1</v>
+      </c>
+      <c r="U38" s="4">
+        <v>1</v>
+      </c>
+      <c r="V38" s="4">
+        <v>1</v>
+      </c>
+      <c r="W38" s="4">
+        <v>1</v>
+      </c>
+      <c r="X38" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:24" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
@@ -4195,7 +8189,9 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
       <c r="H39" s="4">
         <v>1</v>
       </c>
@@ -4206,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="4">
-        <v>4.0069999999999997</v>
+        <v>1</v>
       </c>
       <c r="L39" s="4">
         <v>1</v>
@@ -4258,7 +8254,9 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
       <c r="J40" s="4">
         <v>1</v>
       </c>
@@ -4309,21 +8307,51 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4">
+        <v>1</v>
+      </c>
+      <c r="N41" s="4">
+        <v>1</v>
+      </c>
+      <c r="O41" s="4">
+        <v>1</v>
+      </c>
+      <c r="P41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>1</v>
+      </c>
+      <c r="R41" s="4">
+        <v>1</v>
+      </c>
+      <c r="S41" s="4">
+        <v>1</v>
+      </c>
+      <c r="T41" s="4">
+        <v>1</v>
+      </c>
+      <c r="U41" s="4">
+        <v>1</v>
+      </c>
       <c r="V41" s="4"/>
     </row>
     <row r="42" spans="1:24" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4333,8 +8361,12 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
       <c r="F42" s="4">
         <v>1</v>
       </c>
@@ -4345,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="4">
-        <v>21.461188976040461</v>
+        <v>1</v>
       </c>
       <c r="J42" s="4">
         <v>1</v>
@@ -4354,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="4">
-        <v>1</v>
+        <v>10.22223333333333</v>
       </c>
       <c r="M42" s="4">
         <v>1</v>
@@ -4391,7 +8423,9 @@
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
       <c r="F43" s="4">
         <v>1</v>
       </c>
@@ -4448,39 +8482,17 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="4">
-        <v>1</v>
-      </c>
-      <c r="I44" s="4">
-        <v>1</v>
-      </c>
-      <c r="J44" s="4">
-        <v>1</v>
-      </c>
-      <c r="K44" s="4">
-        <v>1</v>
-      </c>
-      <c r="L44" s="4">
-        <v>1</v>
-      </c>
-      <c r="M44" s="4">
-        <v>1</v>
-      </c>
-      <c r="N44" s="4">
-        <v>1</v>
-      </c>
-      <c r="O44" s="4">
-        <v>1</v>
-      </c>
-      <c r="P44" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="4">
-        <v>1</v>
-      </c>
-      <c r="R44" s="4">
-        <v>1</v>
-      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
@@ -4495,39 +8507,17 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="4">
-        <v>1</v>
-      </c>
-      <c r="H45" s="4">
-        <v>1</v>
-      </c>
-      <c r="I45" s="4">
-        <v>1</v>
-      </c>
-      <c r="J45" s="4">
-        <v>1</v>
-      </c>
-      <c r="K45" s="4">
-        <v>1</v>
-      </c>
-      <c r="L45" s="4">
-        <v>1</v>
-      </c>
-      <c r="M45" s="4">
-        <v>1</v>
-      </c>
-      <c r="N45" s="4">
-        <v>1</v>
-      </c>
-      <c r="O45" s="4">
-        <v>1</v>
-      </c>
-      <c r="P45" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>1</v>
-      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
@@ -4540,12 +8530,24 @@
         <v>8</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
+        <v>2</v>
+      </c>
       <c r="I46" s="4">
         <v>1</v>
       </c>
@@ -4587,33 +8589,15 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4">
-        <v>1</v>
-      </c>
-      <c r="H47" s="4">
-        <v>1</v>
-      </c>
-      <c r="I47" s="4">
-        <v>1</v>
-      </c>
-      <c r="J47" s="4">
-        <v>1</v>
-      </c>
-      <c r="K47" s="4">
-        <v>1</v>
-      </c>
-      <c r="L47" s="4">
-        <v>1</v>
-      </c>
-      <c r="M47" s="4">
-        <v>1</v>
-      </c>
-      <c r="N47" s="4">
-        <v>1</v>
-      </c>
-      <c r="O47" s="4">
-        <v>1</v>
-      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
@@ -4628,39 +8612,17 @@
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4">
-        <v>1</v>
-      </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4">
-        <v>1</v>
-      </c>
-      <c r="I48" s="4">
-        <v>1</v>
-      </c>
-      <c r="J48" s="4">
-        <v>1</v>
-      </c>
-      <c r="K48" s="4">
-        <v>1</v>
-      </c>
-      <c r="L48" s="4">
-        <v>10.22223333333333</v>
-      </c>
-      <c r="M48" s="4">
-        <v>1</v>
-      </c>
-      <c r="N48" s="4">
-        <v>1</v>
-      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
@@ -4674,7 +8636,9 @@
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
       <c r="E49" s="4">
         <v>1</v>
       </c>
@@ -4749,30 +8713,14 @@
         <v>14</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="4">
-        <v>1</v>
-      </c>
-      <c r="D52" s="4">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4">
-        <v>1</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1</v>
-      </c>
-      <c r="G52" s="4">
-        <v>1</v>
-      </c>
-      <c r="H52" s="4">
-        <v>2</v>
-      </c>
-      <c r="I52" s="4">
-        <v>1</v>
-      </c>
-      <c r="J52" s="4">
-        <v>1</v>
-      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
       <c r="V52" s="4"/>
     </row>
     <row r="53" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4782,12 +8730,24 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
@@ -4809,18 +8769,10 @@
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="4">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="4">
-        <v>1</v>
-      </c>
-      <c r="G55" s="4">
-        <v>1</v>
-      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
@@ -4849,8 +8801,12 @@
         <v>20</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
@@ -4876,11 +8832,1552 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AA24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="12" max="12" width="4.7265625" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32">
+        <v>0.73842471889579087</v>
+      </c>
+      <c r="C2" s="32">
+        <v>0.63260020845356602</v>
+      </c>
+      <c r="D2" s="32">
+        <v>1</v>
+      </c>
+      <c r="E2" s="32">
+        <v>1</v>
+      </c>
+      <c r="F2" s="32">
+        <v>0.41290295941744543</v>
+      </c>
+      <c r="G2" s="32">
+        <v>0.34520524301010752</v>
+      </c>
+      <c r="H2" s="32">
+        <v>1</v>
+      </c>
+      <c r="I2" s="32">
+        <v>1</v>
+      </c>
+      <c r="J2" s="32">
+        <v>1</v>
+      </c>
+      <c r="M2" s="31">
+        <v>1</v>
+      </c>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f t="shared" ref="A3:A24" si="0">+A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0.73842471889579087</v>
+      </c>
+      <c r="C3" s="32">
+        <v>0.63260020845356602</v>
+      </c>
+      <c r="D3" s="32">
+        <v>1</v>
+      </c>
+      <c r="E3" s="32">
+        <v>1</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0.41290295941744543</v>
+      </c>
+      <c r="G3" s="32">
+        <v>0.34520524301010752</v>
+      </c>
+      <c r="H3" s="32">
+        <v>1</v>
+      </c>
+      <c r="I3" s="32">
+        <v>1</v>
+      </c>
+      <c r="J3" s="32">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M24" si="1">+M2+1</f>
+        <v>2</v>
+      </c>
+      <c r="N3" s="17">
+        <v>1</v>
+      </c>
+      <c r="O3" s="17">
+        <v>1</v>
+      </c>
+      <c r="P3" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>1</v>
+      </c>
+      <c r="R3" s="17">
+        <v>1</v>
+      </c>
+      <c r="S3" s="17">
+        <v>1</v>
+      </c>
+      <c r="T3" s="17">
+        <v>1</v>
+      </c>
+      <c r="U3" s="17">
+        <v>1</v>
+      </c>
+      <c r="V3" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0.73842471889579087</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.63260020845356602</v>
+      </c>
+      <c r="D4" s="32">
+        <v>1</v>
+      </c>
+      <c r="E4" s="32">
+        <v>1</v>
+      </c>
+      <c r="F4" s="32">
+        <v>0.41290295941744543</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0.34520524301010752</v>
+      </c>
+      <c r="H4" s="32">
+        <v>1</v>
+      </c>
+      <c r="I4" s="32">
+        <v>1</v>
+      </c>
+      <c r="J4" s="32">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N4" s="17">
+        <v>1</v>
+      </c>
+      <c r="O4" s="17">
+        <v>1</v>
+      </c>
+      <c r="P4" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>1</v>
+      </c>
+      <c r="R4" s="17">
+        <v>1</v>
+      </c>
+      <c r="S4" s="17">
+        <v>1</v>
+      </c>
+      <c r="T4" s="17">
+        <v>1</v>
+      </c>
+      <c r="U4" s="17">
+        <v>1</v>
+      </c>
+      <c r="V4" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0.73842471889579087</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.63260020845356602</v>
+      </c>
+      <c r="D5" s="32">
+        <v>1</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0.41290295941744543</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0.34520524301010752</v>
+      </c>
+      <c r="H5" s="32">
+        <v>1</v>
+      </c>
+      <c r="I5" s="32">
+        <v>1</v>
+      </c>
+      <c r="J5" s="32">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N5" s="17">
+        <v>1</v>
+      </c>
+      <c r="O5" s="17">
+        <v>1</v>
+      </c>
+      <c r="P5" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17">
+        <v>1</v>
+      </c>
+      <c r="S5" s="17">
+        <v>1</v>
+      </c>
+      <c r="T5" s="17">
+        <v>1</v>
+      </c>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0.73842471889579087</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.63260020845356602</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0.41290295941744543</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0.34520524301010752</v>
+      </c>
+      <c r="H6" s="32">
+        <v>1</v>
+      </c>
+      <c r="I6" s="32">
+        <v>1</v>
+      </c>
+      <c r="J6" s="32">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N6" s="17">
+        <v>1</v>
+      </c>
+      <c r="O6" s="17">
+        <v>1</v>
+      </c>
+      <c r="P6" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17">
+        <v>1</v>
+      </c>
+      <c r="S6" s="17">
+        <v>1</v>
+      </c>
+      <c r="T6" s="17">
+        <v>1</v>
+      </c>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="32">
+        <v>0.73842471889579087</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0.63260020845356602</v>
+      </c>
+      <c r="D7" s="32">
+        <v>1</v>
+      </c>
+      <c r="E7" s="32">
+        <v>1</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0.41290295941744543</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0.34520524301010752</v>
+      </c>
+      <c r="H7" s="32">
+        <v>1</v>
+      </c>
+      <c r="I7" s="32">
+        <v>1</v>
+      </c>
+      <c r="J7" s="32">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N7" s="17">
+        <v>1</v>
+      </c>
+      <c r="O7" s="17">
+        <v>1</v>
+      </c>
+      <c r="P7" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>1</v>
+      </c>
+      <c r="R7" s="17">
+        <v>1</v>
+      </c>
+      <c r="S7" s="17">
+        <v>1</v>
+      </c>
+      <c r="T7" s="17">
+        <v>1</v>
+      </c>
+      <c r="U7" s="17">
+        <v>1</v>
+      </c>
+      <c r="V7" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="32">
+        <v>0.73842471889579087</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0.63260020845356602</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1</v>
+      </c>
+      <c r="E8" s="32">
+        <v>1</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0.41290295941744543</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0.34520524301010752</v>
+      </c>
+      <c r="H8" s="32">
+        <v>1</v>
+      </c>
+      <c r="I8" s="32">
+        <v>1</v>
+      </c>
+      <c r="J8" s="32">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N8" s="17">
+        <v>1.022421524663677</v>
+      </c>
+      <c r="O8" s="17">
+        <v>1.053321484114641</v>
+      </c>
+      <c r="P8" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>1</v>
+      </c>
+      <c r="R8" s="17">
+        <v>1.125</v>
+      </c>
+      <c r="S8" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="T8" s="17">
+        <v>1</v>
+      </c>
+      <c r="U8" s="17">
+        <v>1</v>
+      </c>
+      <c r="V8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="32">
+        <v>0.75498132694278175</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.66633139041954148</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1</v>
+      </c>
+      <c r="E9" s="32">
+        <v>1</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0.46451582934462621</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0.43150655376263441</v>
+      </c>
+      <c r="H9" s="32">
+        <v>1</v>
+      </c>
+      <c r="I9" s="32">
+        <v>1</v>
+      </c>
+      <c r="J9" s="32">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="17">
+        <v>1</v>
+      </c>
+      <c r="O9" s="17">
+        <v>1</v>
+      </c>
+      <c r="P9" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>1</v>
+      </c>
+      <c r="R9" s="17">
+        <v>1</v>
+      </c>
+      <c r="S9" s="17">
+        <v>1</v>
+      </c>
+      <c r="T9" s="17">
+        <v>1</v>
+      </c>
+      <c r="U9" s="17">
+        <v>1</v>
+      </c>
+      <c r="V9" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="32">
+        <v>0.75498132694278175</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0.66633139041954148</v>
+      </c>
+      <c r="D10" s="32">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32">
+        <v>1</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0.46451582934462621</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0.43150655376263441</v>
+      </c>
+      <c r="H10" s="32">
+        <v>1</v>
+      </c>
+      <c r="I10" s="32">
+        <v>1</v>
+      </c>
+      <c r="J10" s="32">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N10" s="17">
+        <v>1</v>
+      </c>
+      <c r="O10" s="17">
+        <v>1</v>
+      </c>
+      <c r="P10" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17">
+        <v>1</v>
+      </c>
+      <c r="S10" s="17">
+        <v>1</v>
+      </c>
+      <c r="T10" s="17">
+        <v>1</v>
+      </c>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="32">
+        <v>0.75498132694278175</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0.66633139041954148</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1</v>
+      </c>
+      <c r="E11" s="32">
+        <v>1</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0.46451582934462621</v>
+      </c>
+      <c r="G11" s="32">
+        <v>0.43150655376263441</v>
+      </c>
+      <c r="H11" s="32">
+        <v>1</v>
+      </c>
+      <c r="I11" s="32">
+        <v>1</v>
+      </c>
+      <c r="J11" s="32">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N11" s="17">
+        <v>1</v>
+      </c>
+      <c r="O11" s="17">
+        <v>1</v>
+      </c>
+      <c r="P11" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>1</v>
+      </c>
+      <c r="R11" s="17">
+        <v>1</v>
+      </c>
+      <c r="S11" s="17">
+        <v>1</v>
+      </c>
+      <c r="T11" s="17">
+        <v>1</v>
+      </c>
+      <c r="U11" s="17">
+        <v>1</v>
+      </c>
+      <c r="V11" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="32">
+        <v>0.75498132694278175</v>
+      </c>
+      <c r="C12" s="32">
+        <v>0.66633139041954148</v>
+      </c>
+      <c r="D12" s="32">
+        <v>1</v>
+      </c>
+      <c r="E12" s="32">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32">
+        <v>0.46451582934462621</v>
+      </c>
+      <c r="G12" s="32">
+        <v>0.43150655376263441</v>
+      </c>
+      <c r="H12" s="32">
+        <v>1</v>
+      </c>
+      <c r="I12" s="32">
+        <v>1</v>
+      </c>
+      <c r="J12" s="32">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N12" s="17">
+        <v>1.3245360703812319</v>
+      </c>
+      <c r="O12" s="17">
+        <v>1.500754751131222</v>
+      </c>
+      <c r="P12" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>1</v>
+      </c>
+      <c r="R12" s="17">
+        <v>2.1527791666666669</v>
+      </c>
+      <c r="S12" s="17">
+        <v>2.3174619047619052</v>
+      </c>
+      <c r="T12" s="17">
+        <v>1</v>
+      </c>
+      <c r="U12" s="17">
+        <v>1</v>
+      </c>
+      <c r="V12" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="32">
+        <v>1</v>
+      </c>
+      <c r="C13" s="32">
+        <v>1</v>
+      </c>
+      <c r="D13" s="32">
+        <v>1</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1</v>
+      </c>
+      <c r="F13" s="32">
+        <v>1</v>
+      </c>
+      <c r="G13" s="32">
+        <v>1</v>
+      </c>
+      <c r="H13" s="32">
+        <v>1</v>
+      </c>
+      <c r="I13" s="32">
+        <v>1</v>
+      </c>
+      <c r="J13" s="32">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N13" s="17">
+        <v>1</v>
+      </c>
+      <c r="O13" s="17">
+        <v>1</v>
+      </c>
+      <c r="P13" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>1</v>
+      </c>
+      <c r="R13" s="17">
+        <v>1</v>
+      </c>
+      <c r="S13" s="17">
+        <v>1</v>
+      </c>
+      <c r="T13" s="17">
+        <v>1</v>
+      </c>
+      <c r="U13" s="17">
+        <v>1</v>
+      </c>
+      <c r="V13" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="32">
+        <v>1</v>
+      </c>
+      <c r="C14" s="32">
+        <v>1</v>
+      </c>
+      <c r="D14" s="32">
+        <v>1</v>
+      </c>
+      <c r="E14" s="32">
+        <v>1</v>
+      </c>
+      <c r="F14" s="32">
+        <v>1</v>
+      </c>
+      <c r="G14" s="32">
+        <v>1</v>
+      </c>
+      <c r="H14" s="32">
+        <v>1</v>
+      </c>
+      <c r="I14" s="32">
+        <v>1</v>
+      </c>
+      <c r="J14" s="32">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="N14" s="17">
+        <v>1</v>
+      </c>
+      <c r="O14" s="17">
+        <v>1</v>
+      </c>
+      <c r="P14" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>1</v>
+      </c>
+      <c r="R14" s="17">
+        <v>1</v>
+      </c>
+      <c r="S14" s="17">
+        <v>1</v>
+      </c>
+      <c r="T14" s="17">
+        <v>1</v>
+      </c>
+      <c r="U14" s="17">
+        <v>1</v>
+      </c>
+      <c r="V14" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="32">
+        <v>1</v>
+      </c>
+      <c r="C15" s="32">
+        <v>1</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <v>1</v>
+      </c>
+      <c r="F15" s="32">
+        <v>1</v>
+      </c>
+      <c r="G15" s="32">
+        <v>1</v>
+      </c>
+      <c r="H15" s="32">
+        <v>1</v>
+      </c>
+      <c r="I15" s="32">
+        <v>1</v>
+      </c>
+      <c r="J15" s="32">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="N15" s="17">
+        <v>1</v>
+      </c>
+      <c r="O15" s="17">
+        <v>1</v>
+      </c>
+      <c r="P15" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>1</v>
+      </c>
+      <c r="R15" s="17">
+        <v>1</v>
+      </c>
+      <c r="S15" s="17">
+        <v>1</v>
+      </c>
+      <c r="T15" s="17">
+        <v>1</v>
+      </c>
+      <c r="U15" s="17">
+        <v>1</v>
+      </c>
+      <c r="V15" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="32">
+        <v>1</v>
+      </c>
+      <c r="C16" s="32">
+        <v>1</v>
+      </c>
+      <c r="D16" s="32">
+        <v>1</v>
+      </c>
+      <c r="E16" s="32">
+        <v>1</v>
+      </c>
+      <c r="F16" s="32">
+        <v>1</v>
+      </c>
+      <c r="G16" s="32">
+        <v>1</v>
+      </c>
+      <c r="H16" s="32">
+        <v>1</v>
+      </c>
+      <c r="I16" s="32">
+        <v>1</v>
+      </c>
+      <c r="J16" s="32">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="N16" s="17">
+        <v>1</v>
+      </c>
+      <c r="O16" s="17">
+        <v>1</v>
+      </c>
+      <c r="P16" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>1</v>
+      </c>
+      <c r="R16" s="17">
+        <v>1</v>
+      </c>
+      <c r="S16" s="17">
+        <v>1</v>
+      </c>
+      <c r="T16" s="17">
+        <v>1</v>
+      </c>
+      <c r="U16" s="17">
+        <v>1</v>
+      </c>
+      <c r="V16" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="32">
+        <v>1</v>
+      </c>
+      <c r="C17" s="32">
+        <v>1</v>
+      </c>
+      <c r="D17" s="32">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32">
+        <v>1</v>
+      </c>
+      <c r="G17" s="32">
+        <v>1</v>
+      </c>
+      <c r="H17" s="32">
+        <v>1</v>
+      </c>
+      <c r="I17" s="32">
+        <v>1</v>
+      </c>
+      <c r="J17" s="32">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="N17" s="17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="17">
+        <v>1</v>
+      </c>
+      <c r="P17" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>1</v>
+      </c>
+      <c r="R17" s="17">
+        <v>1</v>
+      </c>
+      <c r="S17" s="17">
+        <v>1</v>
+      </c>
+      <c r="T17" s="17">
+        <v>1</v>
+      </c>
+      <c r="U17" s="17">
+        <v>1</v>
+      </c>
+      <c r="V17" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="32">
+        <v>1</v>
+      </c>
+      <c r="C18" s="32">
+        <v>1</v>
+      </c>
+      <c r="D18" s="32">
+        <v>1</v>
+      </c>
+      <c r="E18" s="32">
+        <v>1</v>
+      </c>
+      <c r="F18" s="32">
+        <v>1</v>
+      </c>
+      <c r="G18" s="32">
+        <v>1</v>
+      </c>
+      <c r="H18" s="32">
+        <v>1</v>
+      </c>
+      <c r="I18" s="32">
+        <v>1</v>
+      </c>
+      <c r="J18" s="32">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="N18" s="17">
+        <v>1</v>
+      </c>
+      <c r="O18" s="17">
+        <v>1</v>
+      </c>
+      <c r="P18" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>1</v>
+      </c>
+      <c r="R18" s="17">
+        <v>1</v>
+      </c>
+      <c r="S18" s="17">
+        <v>1</v>
+      </c>
+      <c r="T18" s="17">
+        <v>1</v>
+      </c>
+      <c r="U18" s="17">
+        <v>1</v>
+      </c>
+      <c r="V18" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="32">
+        <v>1</v>
+      </c>
+      <c r="C19" s="32">
+        <v>1</v>
+      </c>
+      <c r="D19" s="32">
+        <v>1</v>
+      </c>
+      <c r="E19" s="32">
+        <v>1</v>
+      </c>
+      <c r="F19" s="32">
+        <v>1</v>
+      </c>
+      <c r="G19" s="32">
+        <v>1</v>
+      </c>
+      <c r="H19" s="32">
+        <v>1</v>
+      </c>
+      <c r="I19" s="32">
+        <v>1</v>
+      </c>
+      <c r="J19" s="32">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N19" s="17">
+        <v>1</v>
+      </c>
+      <c r="O19" s="17">
+        <v>1</v>
+      </c>
+      <c r="P19" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>1</v>
+      </c>
+      <c r="R19" s="17">
+        <v>1</v>
+      </c>
+      <c r="S19" s="17">
+        <v>1</v>
+      </c>
+      <c r="T19" s="17">
+        <v>1</v>
+      </c>
+      <c r="U19" s="17">
+        <v>1</v>
+      </c>
+      <c r="V19" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="32">
+        <v>1</v>
+      </c>
+      <c r="C20" s="32">
+        <v>1</v>
+      </c>
+      <c r="D20" s="32">
+        <v>1</v>
+      </c>
+      <c r="E20" s="32">
+        <v>1</v>
+      </c>
+      <c r="F20" s="32">
+        <v>1</v>
+      </c>
+      <c r="G20" s="32">
+        <v>1</v>
+      </c>
+      <c r="H20" s="32">
+        <v>1</v>
+      </c>
+      <c r="I20" s="32">
+        <v>1</v>
+      </c>
+      <c r="J20" s="32">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="N20" s="17">
+        <v>1</v>
+      </c>
+      <c r="O20" s="17">
+        <v>1</v>
+      </c>
+      <c r="P20" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>1</v>
+      </c>
+      <c r="R20" s="17">
+        <v>1</v>
+      </c>
+      <c r="S20" s="17">
+        <v>1</v>
+      </c>
+      <c r="T20" s="17">
+        <v>1</v>
+      </c>
+      <c r="U20" s="17">
+        <v>1</v>
+      </c>
+      <c r="V20" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="32">
+        <v>1</v>
+      </c>
+      <c r="C21" s="32">
+        <v>1</v>
+      </c>
+      <c r="D21" s="32">
+        <v>1</v>
+      </c>
+      <c r="E21" s="32">
+        <v>1</v>
+      </c>
+      <c r="F21" s="32">
+        <v>1</v>
+      </c>
+      <c r="G21" s="32">
+        <v>1</v>
+      </c>
+      <c r="H21" s="32">
+        <v>1</v>
+      </c>
+      <c r="I21" s="32">
+        <v>1</v>
+      </c>
+      <c r="J21" s="32">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N21" s="17">
+        <v>1</v>
+      </c>
+      <c r="O21" s="17">
+        <v>1</v>
+      </c>
+      <c r="P21" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>1</v>
+      </c>
+      <c r="R21" s="17">
+        <v>1</v>
+      </c>
+      <c r="S21" s="17">
+        <v>1</v>
+      </c>
+      <c r="T21" s="17">
+        <v>1</v>
+      </c>
+      <c r="U21" s="17">
+        <v>1</v>
+      </c>
+      <c r="V21" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="32">
+        <v>1</v>
+      </c>
+      <c r="C22" s="32">
+        <v>1</v>
+      </c>
+      <c r="D22" s="32">
+        <v>1</v>
+      </c>
+      <c r="E22" s="32">
+        <v>1</v>
+      </c>
+      <c r="F22" s="32">
+        <v>1</v>
+      </c>
+      <c r="G22" s="32">
+        <v>1</v>
+      </c>
+      <c r="H22" s="32">
+        <v>1</v>
+      </c>
+      <c r="I22" s="32">
+        <v>1</v>
+      </c>
+      <c r="J22" s="32">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="N22" s="17">
+        <v>1</v>
+      </c>
+      <c r="O22" s="17">
+        <v>1</v>
+      </c>
+      <c r="P22" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>1</v>
+      </c>
+      <c r="R22" s="17">
+        <v>1</v>
+      </c>
+      <c r="S22" s="17">
+        <v>1</v>
+      </c>
+      <c r="T22" s="17">
+        <v>1</v>
+      </c>
+      <c r="U22" s="17">
+        <v>1</v>
+      </c>
+      <c r="V22" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="32">
+        <v>1</v>
+      </c>
+      <c r="C23" s="32">
+        <v>1</v>
+      </c>
+      <c r="D23" s="32">
+        <v>1</v>
+      </c>
+      <c r="E23" s="32">
+        <v>1</v>
+      </c>
+      <c r="F23" s="32">
+        <v>1</v>
+      </c>
+      <c r="G23" s="32">
+        <v>1</v>
+      </c>
+      <c r="H23" s="32">
+        <v>1</v>
+      </c>
+      <c r="I23" s="32">
+        <v>1</v>
+      </c>
+      <c r="J23" s="32">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="N23" s="17">
+        <v>1</v>
+      </c>
+      <c r="O23" s="17">
+        <v>1</v>
+      </c>
+      <c r="P23" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>1</v>
+      </c>
+      <c r="R23" s="17">
+        <v>1</v>
+      </c>
+      <c r="S23" s="17">
+        <v>1</v>
+      </c>
+      <c r="T23" s="17">
+        <v>1</v>
+      </c>
+      <c r="U23" s="17">
+        <v>1</v>
+      </c>
+      <c r="V23" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="32">
+        <v>1</v>
+      </c>
+      <c r="C24" s="32">
+        <v>1</v>
+      </c>
+      <c r="D24" s="32">
+        <v>1</v>
+      </c>
+      <c r="E24" s="32">
+        <v>1</v>
+      </c>
+      <c r="F24" s="32">
+        <v>1</v>
+      </c>
+      <c r="G24" s="32">
+        <v>1</v>
+      </c>
+      <c r="H24" s="32">
+        <v>1</v>
+      </c>
+      <c r="I24" s="32">
+        <v>1</v>
+      </c>
+      <c r="J24" s="32">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="N24" s="17">
+        <v>1</v>
+      </c>
+      <c r="O24" s="17">
+        <v>1</v>
+      </c>
+      <c r="P24" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>1</v>
+      </c>
+      <c r="R24" s="17">
+        <v>1</v>
+      </c>
+      <c r="S24" s="17">
+        <v>1</v>
+      </c>
+      <c r="T24" s="17">
+        <v>1</v>
+      </c>
+      <c r="U24" s="17">
+        <v>1</v>
+      </c>
+      <c r="V24" s="17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:AR54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
@@ -4911,57 +10408,57 @@
   <sheetData>
     <row r="4" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H4" s="8">
-        <v>45382</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
+        <v>45565</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -4969,57 +10466,57 @@
         <v>21</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AR6" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>17</v>
@@ -5031,138 +10528,140 @@
         <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="S7" s="11">
         <f>R8</f>
-        <v>44652</v>
+        <v>44835</v>
       </c>
       <c r="T7" s="11">
         <f>R9</f>
-        <v>44682</v>
+        <v>44866</v>
       </c>
       <c r="U7" s="11">
         <f>R10</f>
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="V7" s="11">
         <f>R11</f>
-        <v>44743</v>
+        <v>44927</v>
       </c>
       <c r="W7" s="11">
         <f>R12</f>
-        <v>44774</v>
+        <v>44958</v>
       </c>
       <c r="X7" s="11">
         <f>R13</f>
-        <v>44805</v>
+        <v>44986</v>
       </c>
       <c r="Y7" s="11">
         <f>R14</f>
-        <v>44835</v>
+        <v>45017</v>
       </c>
       <c r="Z7" s="11">
         <f>R15</f>
-        <v>44866</v>
+        <v>45047</v>
       </c>
       <c r="AA7" s="11">
         <f>R16</f>
-        <v>44896</v>
+        <v>45078</v>
       </c>
       <c r="AB7" s="11">
         <f>R17</f>
-        <v>44927</v>
+        <v>45108</v>
       </c>
       <c r="AC7" s="11">
         <f>R18</f>
-        <v>44958</v>
+        <v>45139</v>
       </c>
       <c r="AD7" s="11">
         <f>R19</f>
-        <v>44986</v>
+        <v>45170</v>
       </c>
       <c r="AE7" s="11">
         <f>R20</f>
-        <v>45017</v>
+        <v>45200</v>
       </c>
       <c r="AF7" s="11">
         <f>R21</f>
-        <v>45047</v>
+        <v>45231</v>
       </c>
       <c r="AG7" s="11">
         <f>R22</f>
-        <v>45078</v>
+        <v>45261</v>
       </c>
       <c r="AH7" s="11">
         <f>R23</f>
-        <v>45108</v>
+        <v>45292</v>
       </c>
       <c r="AI7" s="11">
         <f>R24</f>
-        <v>45139</v>
+        <v>45323</v>
       </c>
       <c r="AJ7" s="11">
         <f>R25</f>
-        <v>45170</v>
+        <v>45352</v>
       </c>
       <c r="AK7" s="11">
         <f>R26</f>
-        <v>45200</v>
+        <v>45383</v>
       </c>
       <c r="AL7" s="11">
         <f>R27</f>
-        <v>45231</v>
+        <v>45413</v>
       </c>
       <c r="AM7" s="11">
         <f>R28</f>
-        <v>45261</v>
+        <v>45444</v>
       </c>
       <c r="AN7" s="11">
         <f>R29</f>
-        <v>45292</v>
+        <v>45474</v>
       </c>
       <c r="AO7" s="11">
         <f>R30</f>
-        <v>45323</v>
+        <v>45505</v>
       </c>
       <c r="AP7" s="11">
         <f>R31</f>
-        <v>45352</v>
+        <v>45536</v>
       </c>
       <c r="AQ7" s="11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AR7" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <f t="shared" ref="A8:A30" si="0">DATE(YEAR(A9),MONTH(A9)-1,1)</f>
-        <v>44652</v>
-      </c>
-      <c r="B8" s="13"/>
+        <v>44835</v>
+      </c>
+      <c r="B8" s="13">
+        <v>3000</v>
+      </c>
       <c r="C8" s="13">
         <f>+'Completion Factors'!J30</f>
         <v>1</v>
@@ -5178,22 +10677,22 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13">
         <f t="shared" ref="G8:G31" si="3">B8+D8+F8</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H8" s="14">
         <f t="shared" ref="H8:H31" si="4">G8-B8</f>
         <v>0</v>
       </c>
       <c r="I8" s="13">
-        <v>11190.32</v>
+        <v>10521.779166666671</v>
       </c>
       <c r="J8" s="13">
         <f t="shared" ref="J8:J28" si="5">100*$G8/$I8</f>
-        <v>0</v>
+        <v>28.512288202209138</v>
       </c>
       <c r="K8" s="13">
         <f t="shared" ref="K8:K31" si="6">100*(B8/I8)</f>
-        <v>0</v>
+        <v>28.512288202209135</v>
       </c>
       <c r="L8" s="13">
         <f t="shared" ref="L8:L31" si="7">J8-K8</f>
@@ -5205,7 +10704,7 @@
       <c r="P8" s="15"/>
       <c r="R8" s="16">
         <f t="shared" ref="R8:R31" si="8">A8</f>
-        <v>44652</v>
+        <v>44835</v>
       </c>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
@@ -5213,34 +10712,70 @@
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="17"/>
-      <c r="AP8" s="17"/>
+      <c r="Y8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="Z8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AA8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AB8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AD8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AE8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AF8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AG8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AH8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AI8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AJ8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AK8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AL8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AM8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AN8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AO8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AP8" s="17">
+        <v>3000</v>
+      </c>
       <c r="AQ8" s="13"/>
       <c r="AR8" s="13"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
-        <v>44682</v>
+        <v>44866</v>
       </c>
       <c r="B9" s="13">
-        <v>200.35</v>
+        <v>2628</v>
       </c>
       <c r="C9" s="13">
         <f>+'Completion Factors'!J29</f>
@@ -5257,22 +10792,22 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13">
         <f t="shared" si="3"/>
-        <v>200.35</v>
+        <v>2628</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I9" s="13">
-        <v>11030.08916666667</v>
+        <v>10405.272499999999</v>
       </c>
       <c r="J9" s="13">
         <f t="shared" si="5"/>
-        <v>1.8163951077155838</v>
+        <v>25.256426489551334</v>
       </c>
       <c r="K9" s="13">
         <f t="shared" si="6"/>
-        <v>1.8163951077155838</v>
+        <v>25.25642648955133</v>
       </c>
       <c r="L9" s="13">
         <f t="shared" si="7"/>
@@ -5284,64 +10819,66 @@
       <c r="P9" s="13"/>
       <c r="R9" s="16">
         <f t="shared" si="8"/>
-        <v>44682</v>
+        <v>44866</v>
       </c>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
+      <c r="X9" s="17">
+        <v>2628</v>
+      </c>
       <c r="Y9" s="17">
-        <v>50</v>
+        <v>2628</v>
       </c>
       <c r="Z9" s="17">
-        <v>50</v>
+        <v>2628</v>
       </c>
       <c r="AA9" s="17">
-        <v>50</v>
+        <v>2628</v>
       </c>
       <c r="AB9" s="17">
-        <v>50</v>
+        <v>2628</v>
       </c>
       <c r="AC9" s="17">
-        <v>200.35</v>
+        <v>2628</v>
       </c>
       <c r="AD9" s="17">
-        <v>200.35</v>
+        <v>2628</v>
       </c>
       <c r="AE9" s="17">
-        <v>200.35</v>
+        <v>2628</v>
       </c>
       <c r="AF9" s="17">
-        <v>200.35</v>
+        <v>2628</v>
       </c>
       <c r="AG9" s="17">
-        <v>200.35</v>
+        <v>2628</v>
       </c>
       <c r="AH9" s="17">
-        <v>200.35</v>
+        <v>2628</v>
       </c>
       <c r="AI9" s="17">
-        <v>200.35</v>
+        <v>2628</v>
       </c>
       <c r="AJ9" s="17">
-        <v>200.35</v>
+        <v>2628</v>
       </c>
       <c r="AK9" s="17">
-        <v>200.35</v>
+        <v>2628</v>
       </c>
       <c r="AL9" s="17">
-        <v>200.35</v>
+        <v>2628</v>
       </c>
       <c r="AM9" s="17">
-        <v>200.35</v>
+        <v>2628</v>
       </c>
       <c r="AN9" s="17">
-        <v>200.35</v>
+        <v>2628</v>
       </c>
       <c r="AO9" s="17">
-        <v>200.35</v>
+        <v>2628</v>
       </c>
       <c r="AP9" s="17"/>
       <c r="AQ9" s="13"/>
@@ -5350,10 +10887,10 @@
     <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="B10" s="13">
-        <v>341.84</v>
+        <v>562</v>
       </c>
       <c r="C10" s="13">
         <f>+'Completion Factors'!J28</f>
@@ -5370,22 +10907,22 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13">
         <f t="shared" si="3"/>
-        <v>341.84</v>
+        <v>562</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I10" s="13">
-        <v>10998.30583333333</v>
+        <v>10369.33083333333</v>
       </c>
       <c r="J10" s="13">
         <f t="shared" si="5"/>
-        <v>3.1081150604483261</v>
+        <v>5.419829003752012</v>
       </c>
       <c r="K10" s="13">
         <f t="shared" si="6"/>
-        <v>3.1081150604483256</v>
+        <v>5.419829003752012</v>
       </c>
       <c r="L10" s="13">
         <f t="shared" si="7"/>
@@ -5397,7 +10934,7 @@
       <c r="P10" s="13"/>
       <c r="R10" s="16">
         <f t="shared" si="8"/>
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
@@ -5406,48 +10943,50 @@
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
+      <c r="Z10" s="17">
+        <v>562</v>
+      </c>
       <c r="AA10" s="17">
-        <v>341.84</v>
+        <v>562</v>
       </c>
       <c r="AB10" s="17">
-        <v>341.84</v>
+        <v>562</v>
       </c>
       <c r="AC10" s="17">
-        <v>341.84</v>
+        <v>562</v>
       </c>
       <c r="AD10" s="17">
-        <v>341.84</v>
+        <v>562</v>
       </c>
       <c r="AE10" s="17">
-        <v>341.84</v>
+        <v>562</v>
       </c>
       <c r="AF10" s="17">
-        <v>341.84</v>
+        <v>562</v>
       </c>
       <c r="AG10" s="17">
-        <v>341.84</v>
+        <v>562</v>
       </c>
       <c r="AH10" s="17">
-        <v>341.84</v>
+        <v>562</v>
       </c>
       <c r="AI10" s="17">
-        <v>341.84</v>
+        <v>562</v>
       </c>
       <c r="AJ10" s="17">
-        <v>341.84</v>
+        <v>562</v>
       </c>
       <c r="AK10" s="17">
-        <v>341.84</v>
+        <v>562</v>
       </c>
       <c r="AL10" s="17">
-        <v>341.84</v>
+        <v>562</v>
       </c>
       <c r="AM10" s="17">
-        <v>341.84</v>
+        <v>562</v>
       </c>
       <c r="AN10" s="17">
-        <v>341.84</v>
+        <v>562</v>
       </c>
       <c r="AO10" s="17"/>
       <c r="AP10" s="17"/>
@@ -5457,9 +10996,11 @@
     <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
-        <v>44743</v>
-      </c>
-      <c r="B11" s="13"/>
+        <v>44927</v>
+      </c>
+      <c r="B11" s="13">
+        <v>275</v>
+      </c>
       <c r="C11" s="13">
         <f>+'Completion Factors'!J27</f>
         <v>1</v>
@@ -5475,22 +11016,22 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I11" s="13">
-        <v>11000.21583333333</v>
+        <v>10118.8475</v>
       </c>
       <c r="J11" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.7177008053535743</v>
       </c>
       <c r="K11" s="13">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.7177008053535743</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="7"/>
@@ -5502,29 +11043,61 @@
       <c r="P11" s="13"/>
       <c r="R11" s="16">
         <f t="shared" si="8"/>
-        <v>44743</v>
+        <v>44927</v>
       </c>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
+      <c r="X11" s="17">
+        <v>275</v>
+      </c>
+      <c r="Y11" s="17">
+        <v>275</v>
+      </c>
+      <c r="Z11" s="17">
+        <v>275</v>
+      </c>
+      <c r="AA11" s="17">
+        <v>275</v>
+      </c>
+      <c r="AB11" s="17">
+        <v>275</v>
+      </c>
+      <c r="AC11" s="17">
+        <v>275</v>
+      </c>
+      <c r="AD11" s="17">
+        <v>275</v>
+      </c>
+      <c r="AE11" s="17">
+        <v>275</v>
+      </c>
+      <c r="AF11" s="17">
+        <v>275</v>
+      </c>
+      <c r="AG11" s="17">
+        <v>275</v>
+      </c>
+      <c r="AH11" s="17">
+        <v>275</v>
+      </c>
+      <c r="AI11" s="17">
+        <v>275</v>
+      </c>
+      <c r="AJ11" s="17">
+        <v>275</v>
+      </c>
+      <c r="AK11" s="17">
+        <v>275</v>
+      </c>
+      <c r="AL11" s="17">
+        <v>275</v>
+      </c>
+      <c r="AM11" s="17">
+        <v>275</v>
+      </c>
       <c r="AN11" s="17"/>
       <c r="AO11" s="17"/>
       <c r="AP11" s="17"/>
@@ -5534,10 +11107,10 @@
     <row r="12" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
-        <v>44774</v>
+        <v>44958</v>
       </c>
       <c r="B12" s="13">
-        <v>5007.1100000000006</v>
+        <v>3066.67</v>
       </c>
       <c r="C12" s="13">
         <f>++'Completion Factors'!J26</f>
@@ -5554,22 +11127,22 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13">
         <f t="shared" si="3"/>
-        <v>5007.1100000000006</v>
+        <v>3066.67</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I12" s="13">
-        <v>10691.37583333333</v>
+        <v>10006.547500000001</v>
       </c>
       <c r="J12" s="13">
         <f t="shared" si="5"/>
-        <v>46.833167948216229</v>
+        <v>30.646634116312342</v>
       </c>
       <c r="K12" s="13">
         <f t="shared" si="6"/>
-        <v>46.833167948216229</v>
+        <v>30.646634116312342</v>
       </c>
       <c r="L12" s="13">
         <f t="shared" si="7"/>
@@ -5581,59 +11154,63 @@
       <c r="P12" s="13"/>
       <c r="R12" s="16">
         <f t="shared" si="8"/>
-        <v>44774</v>
+        <v>44958</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
+      <c r="U12" s="17">
+        <v>300</v>
+      </c>
+      <c r="V12" s="17">
+        <v>300</v>
+      </c>
       <c r="W12" s="17">
-        <v>233.31</v>
+        <v>300</v>
       </c>
       <c r="X12" s="17">
-        <v>233.31</v>
+        <v>300</v>
       </c>
       <c r="Y12" s="17">
-        <v>233.31</v>
+        <v>300</v>
       </c>
       <c r="Z12" s="17">
-        <v>233.31</v>
+        <v>300</v>
       </c>
       <c r="AA12" s="17">
-        <v>5007.1100000000006</v>
+        <v>300</v>
       </c>
       <c r="AB12" s="17">
-        <v>5007.1100000000006</v>
+        <v>300</v>
       </c>
       <c r="AC12" s="17">
-        <v>5007.1100000000006</v>
+        <v>300</v>
       </c>
       <c r="AD12" s="17">
-        <v>5007.1100000000006</v>
+        <v>3066.67</v>
       </c>
       <c r="AE12" s="17">
-        <v>5007.1100000000006</v>
+        <v>3066.67</v>
       </c>
       <c r="AF12" s="17">
-        <v>5007.1100000000006</v>
+        <v>3066.67</v>
       </c>
       <c r="AG12" s="17">
-        <v>5007.1100000000006</v>
+        <v>3066.67</v>
       </c>
       <c r="AH12" s="17">
-        <v>5007.1100000000006</v>
+        <v>3066.67</v>
       </c>
       <c r="AI12" s="17">
-        <v>5007.1100000000006</v>
+        <v>3066.67</v>
       </c>
       <c r="AJ12" s="17">
-        <v>5007.1100000000006</v>
+        <v>3066.67</v>
       </c>
       <c r="AK12" s="17">
-        <v>5007.1100000000006</v>
+        <v>3066.67</v>
       </c>
       <c r="AL12" s="17">
-        <v>5007.1100000000006</v>
+        <v>3066.67</v>
       </c>
       <c r="AM12" s="17"/>
       <c r="AN12" s="17"/>
@@ -5645,10 +11222,10 @@
     <row r="13" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
-        <v>44805</v>
+        <v>44986</v>
       </c>
       <c r="B13" s="13">
-        <v>266.79000000000002</v>
+        <v>1040</v>
       </c>
       <c r="C13" s="13">
         <f>++'Completion Factors'!J25</f>
@@ -5665,22 +11242,22 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13">
         <f t="shared" si="3"/>
-        <v>266.79000000000002</v>
+        <v>1040</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I13" s="13">
-        <v>10627.675833333329</v>
+        <v>9952.7241666666669</v>
       </c>
       <c r="J13" s="13">
         <f t="shared" si="5"/>
-        <v>2.5103324958710411</v>
+        <v>10.449400411227446</v>
       </c>
       <c r="K13" s="13">
         <f t="shared" si="6"/>
-        <v>2.5103324958710411</v>
+        <v>10.449400411227446</v>
       </c>
       <c r="L13" s="13">
         <f t="shared" si="7"/>
@@ -5692,56 +11269,58 @@
       <c r="P13" s="13"/>
       <c r="R13" s="16">
         <f t="shared" si="8"/>
-        <v>44805</v>
+        <v>44986</v>
       </c>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
+      <c r="V13" s="17">
+        <v>1040</v>
+      </c>
       <c r="W13" s="17">
-        <v>266.79000000000002</v>
+        <v>1040</v>
       </c>
       <c r="X13" s="17">
-        <v>266.79000000000002</v>
+        <v>1040</v>
       </c>
       <c r="Y13" s="17">
-        <v>266.79000000000002</v>
+        <v>1040</v>
       </c>
       <c r="Z13" s="17">
-        <v>266.79000000000002</v>
+        <v>1040</v>
       </c>
       <c r="AA13" s="17">
-        <v>266.79000000000002</v>
+        <v>1040</v>
       </c>
       <c r="AB13" s="17">
-        <v>266.79000000000002</v>
+        <v>1040</v>
       </c>
       <c r="AC13" s="17">
-        <v>266.79000000000002</v>
+        <v>1040</v>
       </c>
       <c r="AD13" s="17">
-        <v>266.79000000000002</v>
+        <v>1040</v>
       </c>
       <c r="AE13" s="17">
-        <v>266.79000000000002</v>
+        <v>1040</v>
       </c>
       <c r="AF13" s="17">
-        <v>266.79000000000002</v>
+        <v>1040</v>
       </c>
       <c r="AG13" s="17">
-        <v>266.79000000000002</v>
+        <v>1040</v>
       </c>
       <c r="AH13" s="17">
-        <v>266.79000000000002</v>
+        <v>1040</v>
       </c>
       <c r="AI13" s="17">
-        <v>266.79000000000002</v>
+        <v>1040</v>
       </c>
       <c r="AJ13" s="17">
-        <v>266.79000000000002</v>
+        <v>1040</v>
       </c>
       <c r="AK13" s="17">
-        <v>266.79000000000002</v>
+        <v>1040</v>
       </c>
       <c r="AL13" s="17"/>
       <c r="AM13" s="17"/>
@@ -5754,11 +11333,9 @@
     <row r="14" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
-        <v>44835</v>
-      </c>
-      <c r="B14" s="13">
-        <v>3000</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B14" s="13"/>
       <c r="C14" s="13">
         <f>++'Completion Factors'!J24</f>
         <v>1</v>
@@ -5774,22 +11351,22 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I14" s="13">
-        <v>10521.779166666671</v>
+        <v>9849.5041666666657</v>
       </c>
       <c r="J14" s="13">
         <f t="shared" si="5"/>
-        <v>28.512288202209138</v>
+        <v>0</v>
       </c>
       <c r="K14" s="13">
         <f t="shared" si="6"/>
-        <v>28.512288202209135</v>
+        <v>0</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" si="7"/>
@@ -5801,7 +11378,7 @@
       <c r="P14" s="13"/>
       <c r="R14" s="16">
         <f t="shared" si="8"/>
-        <v>44835</v>
+        <v>45017</v>
       </c>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
@@ -5809,42 +11386,18 @@
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
-      <c r="Y14" s="17">
-        <v>3000</v>
-      </c>
-      <c r="Z14" s="17">
-        <v>3000</v>
-      </c>
-      <c r="AA14" s="17">
-        <v>3000</v>
-      </c>
-      <c r="AB14" s="17">
-        <v>3000</v>
-      </c>
-      <c r="AC14" s="17">
-        <v>3000</v>
-      </c>
-      <c r="AD14" s="17">
-        <v>3000</v>
-      </c>
-      <c r="AE14" s="17">
-        <v>3000</v>
-      </c>
-      <c r="AF14" s="17">
-        <v>3000</v>
-      </c>
-      <c r="AG14" s="17">
-        <v>3000</v>
-      </c>
-      <c r="AH14" s="17">
-        <v>3000</v>
-      </c>
-      <c r="AI14" s="17">
-        <v>3000</v>
-      </c>
-      <c r="AJ14" s="17">
-        <v>3000</v>
-      </c>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
       <c r="AL14" s="17"/>
       <c r="AM14" s="17"/>
@@ -5857,11 +11410,9 @@
     <row r="15" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
-        <v>44866</v>
-      </c>
-      <c r="B15" s="13">
-        <v>2628</v>
-      </c>
+        <v>45047</v>
+      </c>
+      <c r="B15" s="13"/>
       <c r="C15" s="13">
         <f>++'Completion Factors'!J23</f>
         <v>1</v>
@@ -5877,22 +11428,22 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13">
         <f t="shared" si="3"/>
-        <v>2628</v>
+        <v>0</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I15" s="13">
-        <v>10405.272499999999</v>
+        <v>9879.3174999999992</v>
       </c>
       <c r="J15" s="13">
         <f t="shared" si="5"/>
-        <v>25.256426489551334</v>
+        <v>0</v>
       </c>
       <c r="K15" s="13">
         <f t="shared" si="6"/>
-        <v>25.25642648955133</v>
+        <v>0</v>
       </c>
       <c r="L15" s="13">
         <f t="shared" si="7"/>
@@ -5904,49 +11455,25 @@
       <c r="P15" s="13"/>
       <c r="R15" s="16">
         <f t="shared" si="8"/>
-        <v>44866</v>
+        <v>45047</v>
       </c>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
-      <c r="X15" s="17">
-        <v>2628</v>
-      </c>
-      <c r="Y15" s="17">
-        <v>2628</v>
-      </c>
-      <c r="Z15" s="17">
-        <v>2628</v>
-      </c>
-      <c r="AA15" s="17">
-        <v>2628</v>
-      </c>
-      <c r="AB15" s="17">
-        <v>2628</v>
-      </c>
-      <c r="AC15" s="17">
-        <v>2628</v>
-      </c>
-      <c r="AD15" s="17">
-        <v>2628</v>
-      </c>
-      <c r="AE15" s="17">
-        <v>2628</v>
-      </c>
-      <c r="AF15" s="17">
-        <v>2628</v>
-      </c>
-      <c r="AG15" s="17">
-        <v>2628</v>
-      </c>
-      <c r="AH15" s="17">
-        <v>2628</v>
-      </c>
-      <c r="AI15" s="17">
-        <v>2628</v>
-      </c>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
       <c r="AJ15" s="17"/>
       <c r="AK15" s="17"/>
       <c r="AL15" s="17"/>
@@ -5960,10 +11487,10 @@
     <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
-        <v>44896</v>
+        <v>45078</v>
       </c>
       <c r="B16" s="13">
-        <v>562</v>
+        <v>480</v>
       </c>
       <c r="C16" s="13">
         <f>++'Completion Factors'!J22</f>
@@ -5980,22 +11507,22 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13">
         <f t="shared" si="3"/>
-        <v>562</v>
+        <v>480</v>
       </c>
       <c r="H16" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I16" s="13">
-        <v>10369.33083333333</v>
+        <v>9818.7875000000004</v>
       </c>
       <c r="J16" s="13">
         <f t="shared" si="5"/>
-        <v>5.419829003752012</v>
+        <v>4.8885873128428532</v>
       </c>
       <c r="K16" s="13">
         <f t="shared" si="6"/>
-        <v>5.419829003752012</v>
+        <v>4.8885873128428532</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" si="7"/>
@@ -6007,41 +11534,53 @@
       <c r="P16" s="13"/>
       <c r="R16" s="16">
         <f t="shared" si="8"/>
-        <v>44896</v>
+        <v>45078</v>
       </c>
       <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
+      <c r="T16" s="17">
+        <v>240</v>
+      </c>
+      <c r="U16" s="17">
+        <v>240</v>
+      </c>
+      <c r="V16" s="17">
+        <v>240</v>
+      </c>
+      <c r="W16" s="17">
+        <v>240</v>
+      </c>
+      <c r="X16" s="17">
+        <v>240</v>
+      </c>
+      <c r="Y16" s="17">
+        <v>240</v>
+      </c>
       <c r="Z16" s="17">
-        <v>562</v>
+        <v>480</v>
       </c>
       <c r="AA16" s="17">
-        <v>562</v>
+        <v>480</v>
       </c>
       <c r="AB16" s="17">
-        <v>562</v>
+        <v>480</v>
       </c>
       <c r="AC16" s="17">
-        <v>562</v>
+        <v>480</v>
       </c>
       <c r="AD16" s="17">
-        <v>562</v>
+        <v>480</v>
       </c>
       <c r="AE16" s="17">
-        <v>562</v>
+        <v>480</v>
       </c>
       <c r="AF16" s="17">
-        <v>562</v>
+        <v>480</v>
       </c>
       <c r="AG16" s="17">
-        <v>562</v>
+        <v>480</v>
       </c>
       <c r="AH16" s="17">
-        <v>562</v>
+        <v>480</v>
       </c>
       <c r="AI16" s="17"/>
       <c r="AJ16" s="17"/>
@@ -6057,11 +11596,9 @@
     <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
-        <v>44927</v>
-      </c>
-      <c r="B17" s="13">
-        <v>275</v>
-      </c>
+        <v>45108</v>
+      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="13">
         <f>++'Completion Factors'!J21</f>
         <v>1</v>
@@ -6077,22 +11614,22 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13">
         <f t="shared" si="3"/>
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I17" s="13">
-        <v>10118.8475</v>
+        <v>9731.0108333333337</v>
       </c>
       <c r="J17" s="13">
         <f t="shared" si="5"/>
-        <v>2.7177008053535743</v>
+        <v>0</v>
       </c>
       <c r="K17" s="13">
         <f t="shared" si="6"/>
-        <v>2.7177008053535743</v>
+        <v>0</v>
       </c>
       <c r="L17" s="13">
         <f t="shared" si="7"/>
@@ -6104,43 +11641,23 @@
       <c r="P17" s="13"/>
       <c r="R17" s="16">
         <f t="shared" si="8"/>
-        <v>44927</v>
+        <v>45108</v>
       </c>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
-      <c r="X17" s="17">
-        <v>275</v>
-      </c>
-      <c r="Y17" s="17">
-        <v>275</v>
-      </c>
-      <c r="Z17" s="17">
-        <v>275</v>
-      </c>
-      <c r="AA17" s="17">
-        <v>275</v>
-      </c>
-      <c r="AB17" s="17">
-        <v>275</v>
-      </c>
-      <c r="AC17" s="17">
-        <v>275</v>
-      </c>
-      <c r="AD17" s="17">
-        <v>275</v>
-      </c>
-      <c r="AE17" s="17">
-        <v>275</v>
-      </c>
-      <c r="AF17" s="17">
-        <v>275</v>
-      </c>
-      <c r="AG17" s="17">
-        <v>275</v>
-      </c>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
       <c r="AH17" s="17"/>
       <c r="AI17" s="17"/>
       <c r="AJ17" s="17"/>
@@ -6156,11 +11673,9 @@
     <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
-        <v>44958</v>
-      </c>
-      <c r="B18" s="13">
-        <v>3066.67</v>
-      </c>
+        <v>45139</v>
+      </c>
+      <c r="B18" s="13"/>
       <c r="C18" s="13">
         <f>++'Completion Factors'!J20</f>
         <v>1</v>
@@ -6176,22 +11691,22 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13">
         <f t="shared" si="3"/>
-        <v>3066.67</v>
+        <v>0</v>
       </c>
       <c r="H18" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I18" s="13">
-        <v>10006.547500000001</v>
+        <v>9583.9974999999995</v>
       </c>
       <c r="J18" s="13">
         <f t="shared" si="5"/>
-        <v>30.646634116312342</v>
+        <v>0</v>
       </c>
       <c r="K18" s="13">
         <f t="shared" si="6"/>
-        <v>30.646634116312342</v>
+        <v>0</v>
       </c>
       <c r="L18" s="13">
         <f t="shared" si="7"/>
@@ -6203,46 +11718,22 @@
       <c r="P18" s="13"/>
       <c r="R18" s="16">
         <f t="shared" si="8"/>
-        <v>44958</v>
+        <v>45139</v>
       </c>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
-      <c r="U18" s="17">
-        <v>300</v>
-      </c>
-      <c r="V18" s="17">
-        <v>300</v>
-      </c>
-      <c r="W18" s="17">
-        <v>300</v>
-      </c>
-      <c r="X18" s="17">
-        <v>300</v>
-      </c>
-      <c r="Y18" s="17">
-        <v>300</v>
-      </c>
-      <c r="Z18" s="17">
-        <v>300</v>
-      </c>
-      <c r="AA18" s="17">
-        <v>300</v>
-      </c>
-      <c r="AB18" s="17">
-        <v>300</v>
-      </c>
-      <c r="AC18" s="17">
-        <v>300</v>
-      </c>
-      <c r="AD18" s="17">
-        <v>3066.67</v>
-      </c>
-      <c r="AE18" s="17">
-        <v>3066.67</v>
-      </c>
-      <c r="AF18" s="17">
-        <v>3066.67</v>
-      </c>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
       <c r="AG18" s="17"/>
       <c r="AH18" s="17"/>
       <c r="AI18" s="17"/>
@@ -6259,10 +11750,10 @@
     <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
-        <v>44986</v>
+        <v>45170</v>
       </c>
       <c r="B19" s="13">
-        <v>1040</v>
+        <v>240</v>
       </c>
       <c r="C19" s="13">
         <f>++'Completion Factors'!J19</f>
@@ -6279,22 +11770,22 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13">
         <f t="shared" si="3"/>
-        <v>1040</v>
+        <v>240</v>
       </c>
       <c r="H19" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I19" s="13">
-        <v>9952.7241666666669</v>
+        <v>9521.9908333333333</v>
       </c>
       <c r="J19" s="13">
         <f t="shared" si="5"/>
-        <v>10.449400411227446</v>
+        <v>2.5204813174135765</v>
       </c>
       <c r="K19" s="13">
         <f t="shared" si="6"/>
-        <v>10.449400411227446</v>
+        <v>2.5204813174135765</v>
       </c>
       <c r="L19" s="13">
         <f t="shared" si="7"/>
@@ -6302,47 +11793,49 @@
       </c>
       <c r="M19" s="13">
         <f t="shared" ref="M19:M31" si="9">SUM(G8:G19)/SUM(I8:I19)*100</f>
-        <v>12.912646149514279</v>
+        <v>9.4286522336380081</v>
       </c>
       <c r="N19" s="18"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
       <c r="R19" s="16">
         <f t="shared" si="8"/>
-        <v>44986</v>
+        <v>45170</v>
       </c>
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
+      <c r="U19" s="17">
+        <v>240</v>
+      </c>
       <c r="V19" s="17">
-        <v>1040</v>
+        <v>240</v>
       </c>
       <c r="W19" s="17">
-        <v>1040</v>
+        <v>240</v>
       </c>
       <c r="X19" s="17">
-        <v>1040</v>
+        <v>240</v>
       </c>
       <c r="Y19" s="17">
-        <v>1040</v>
+        <v>240</v>
       </c>
       <c r="Z19" s="17">
-        <v>1040</v>
+        <v>240</v>
       </c>
       <c r="AA19" s="17">
-        <v>1040</v>
+        <v>240</v>
       </c>
       <c r="AB19" s="17">
-        <v>1040</v>
+        <v>240</v>
       </c>
       <c r="AC19" s="17">
-        <v>1040</v>
+        <v>240</v>
       </c>
       <c r="AD19" s="17">
-        <v>1040</v>
+        <v>240</v>
       </c>
       <c r="AE19" s="17">
-        <v>1040</v>
+        <v>240</v>
       </c>
       <c r="AF19" s="17"/>
       <c r="AG19" s="17"/>
@@ -6361,7 +11854,7 @@
     <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
-        <v>45017</v>
+        <v>45200</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13">
@@ -6386,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="13">
-        <v>9849.5041666666657</v>
+        <v>9486.600833333332</v>
       </c>
       <c r="J20" s="13">
         <f t="shared" si="5"/>
@@ -6402,20 +11895,20 @@
       </c>
       <c r="M20" s="13">
         <f t="shared" si="9"/>
-        <v>13.050523432163263</v>
-      </c>
-      <c r="N20" s="18" t="e">
+        <v>6.9839920929168482</v>
+      </c>
+      <c r="N20" s="18">
         <f t="shared" ref="N20:N31" si="10">J20/J8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O20" s="18">
         <f t="shared" ref="O20:O31" si="11">I20/I8</f>
-        <v>0.88018074252270406</v>
+        <v>0.90161565673105781</v>
       </c>
       <c r="P20" s="13"/>
       <c r="R20" s="16">
         <f t="shared" si="8"/>
-        <v>45017</v>
+        <v>45200</v>
       </c>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
@@ -6447,12 +11940,12 @@
     <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
-        <v>45047</v>
+        <v>45231</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13">
         <f>++'Completion Factors'!J17</f>
-        <v>0.2365306628495874</v>
+        <v>1</v>
       </c>
       <c r="D21" s="13">
         <f t="shared" si="1"/>
@@ -6472,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="13">
-        <v>9879.3174999999992</v>
+        <v>9353.5275000000001</v>
       </c>
       <c r="J21" s="13">
         <f t="shared" si="5"/>
@@ -6488,7 +11981,7 @@
       </c>
       <c r="M21" s="13">
         <f t="shared" si="9"/>
-        <v>13.010202010814423</v>
+        <v>4.8130914878327529</v>
       </c>
       <c r="N21" s="18">
         <f t="shared" si="10"/>
@@ -6496,12 +11989,12 @@
       </c>
       <c r="O21" s="18">
         <f t="shared" si="11"/>
-        <v>0.89566977661936364</v>
+        <v>0.89892191674941724</v>
       </c>
       <c r="P21" s="13"/>
       <c r="R21" s="16">
         <f t="shared" si="8"/>
-        <v>45047</v>
+        <v>45231</v>
       </c>
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
@@ -6533,92 +12026,72 @@
     <row r="22" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
-        <v>45078</v>
-      </c>
-      <c r="B22" s="13">
-        <v>480</v>
-      </c>
+        <v>45261</v>
+      </c>
+      <c r="B22" s="13"/>
       <c r="C22" s="13">
         <f>++'Completion Factors'!J16</f>
-        <v>0.2365306628495874</v>
+        <v>1</v>
       </c>
       <c r="D22" s="13">
         <f t="shared" si="1"/>
-        <v>1549.3351999999998</v>
+        <v>0</v>
       </c>
       <c r="E22" s="13">
         <f t="shared" si="2"/>
-        <v>1549.3351999999998</v>
+        <v>0</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13">
         <f t="shared" si="3"/>
-        <v>2029.3351999999998</v>
+        <v>0</v>
       </c>
       <c r="H22" s="14">
         <f t="shared" si="4"/>
-        <v>1549.3351999999998</v>
+        <v>0</v>
       </c>
       <c r="I22" s="13">
-        <v>9818.7874999999985</v>
+        <v>9322.3475000000017</v>
       </c>
       <c r="J22" s="13">
         <f t="shared" si="5"/>
-        <v>20.667879817136281</v>
+        <v>0</v>
       </c>
       <c r="K22" s="13">
         <f t="shared" si="6"/>
-        <v>4.8885873128428541</v>
+        <v>0</v>
       </c>
       <c r="L22" s="13">
         <f t="shared" si="7"/>
-        <v>15.779292504293426</v>
+        <v>0</v>
       </c>
       <c r="M22" s="13">
         <f t="shared" si="9"/>
-        <v>14.50398027166931</v>
+        <v>4.3744146669726423</v>
       </c>
       <c r="N22" s="18">
         <f t="shared" si="10"/>
-        <v>6.6496508060918016</v>
+        <v>0</v>
       </c>
       <c r="O22" s="18">
         <f t="shared" si="11"/>
-        <v>0.8927545431807794</v>
+        <v>0.89903077159350653</v>
       </c>
       <c r="P22" s="13"/>
       <c r="R22" s="16">
         <f t="shared" si="8"/>
-        <v>45078</v>
+        <v>45261</v>
       </c>
       <c r="S22" s="17"/>
-      <c r="T22" s="17">
-        <v>240</v>
-      </c>
-      <c r="U22" s="17">
-        <v>240</v>
-      </c>
-      <c r="V22" s="17">
-        <v>240</v>
-      </c>
-      <c r="W22" s="17">
-        <v>240</v>
-      </c>
-      <c r="X22" s="17">
-        <v>240</v>
-      </c>
-      <c r="Y22" s="17">
-        <v>240</v>
-      </c>
-      <c r="Z22" s="17">
-        <v>480</v>
-      </c>
-      <c r="AA22" s="17">
-        <v>480</v>
-      </c>
-      <c r="AB22" s="17">
-        <v>480</v>
-      </c>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
       <c r="AE22" s="17"/>
@@ -6639,12 +12112,14 @@
     <row r="23" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
-        <v>45108</v>
-      </c>
-      <c r="B23" s="13"/>
+        <v>45292</v>
+      </c>
+      <c r="B23" s="13">
+        <v>2981</v>
+      </c>
       <c r="C23" s="13">
         <f>++'Completion Factors'!J15</f>
-        <v>0.2365306628495874</v>
+        <v>1</v>
       </c>
       <c r="D23" s="13">
         <f t="shared" si="1"/>
@@ -6657,22 +12132,22 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2981</v>
       </c>
       <c r="H23" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I23" s="13">
-        <v>9731.0108333333337</v>
+        <v>9289.9308333333338</v>
       </c>
       <c r="J23" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>32.088505861678016</v>
       </c>
       <c r="K23" s="13">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>32.088505861678016</v>
       </c>
       <c r="L23" s="13">
         <f t="shared" si="7"/>
@@ -6680,30 +12155,44 @@
       </c>
       <c r="M23" s="13">
         <f t="shared" si="9"/>
-        <v>14.654904238813815</v>
-      </c>
-      <c r="N23" s="18" t="e">
+        <v>6.7425909973048661</v>
+      </c>
+      <c r="N23" s="18">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>11.807225356988216</v>
       </c>
       <c r="O23" s="18">
         <f t="shared" si="11"/>
-        <v>0.88461999116835544</v>
+        <v>0.9180819093610546</v>
       </c>
       <c r="P23" s="13"/>
       <c r="R23" s="16">
         <f t="shared" si="8"/>
-        <v>45108</v>
+        <v>45292</v>
       </c>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
+      <c r="U23" s="17">
+        <v>2981</v>
+      </c>
+      <c r="V23" s="17">
+        <v>2981</v>
+      </c>
+      <c r="W23" s="17">
+        <v>2981</v>
+      </c>
+      <c r="X23" s="17">
+        <v>2981</v>
+      </c>
+      <c r="Y23" s="17">
+        <v>2981</v>
+      </c>
+      <c r="Z23" s="17">
+        <v>2981</v>
+      </c>
+      <c r="AA23" s="17">
+        <v>2981</v>
+      </c>
       <c r="AB23" s="17"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
@@ -6725,12 +12214,12 @@
     <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
-        <v>45139</v>
+        <v>45323</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13">
         <f>++'Completion Factors'!J14</f>
-        <v>0.2365306628495874</v>
+        <v>1</v>
       </c>
       <c r="D24" s="13">
         <f t="shared" si="1"/>
@@ -6752,7 +12241,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="13">
-        <v>9583.9974999999995</v>
+        <v>9275.0475000000006</v>
       </c>
       <c r="J24" s="13">
         <f t="shared" si="5"/>
@@ -6768,7 +12257,7 @@
       </c>
       <c r="M24" s="13">
         <f t="shared" si="9"/>
-        <v>10.646437781986059</v>
+        <v>4.1202874809426211</v>
       </c>
       <c r="N24" s="18">
         <f t="shared" si="10"/>
@@ -6776,12 +12265,12 @@
       </c>
       <c r="O24" s="18">
         <f t="shared" si="11"/>
-        <v>0.89642321525347834</v>
+        <v>0.92689786362379234</v>
       </c>
       <c r="P24" s="13"/>
       <c r="R24" s="16">
         <f t="shared" si="8"/>
-        <v>45139</v>
+        <v>45323</v>
       </c>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
@@ -6813,83 +12302,71 @@
     <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
-        <v>45170</v>
-      </c>
-      <c r="B25" s="13">
-        <v>240</v>
-      </c>
+        <v>45352</v>
+      </c>
+      <c r="B25" s="13"/>
       <c r="C25" s="13">
         <f>++'Completion Factors'!J13</f>
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
       <c r="D25" s="13">
         <f t="shared" si="1"/>
-        <v>1618.6684</v>
+        <v>0</v>
       </c>
       <c r="E25" s="13">
         <f t="shared" si="2"/>
-        <v>1618.6684</v>
+        <v>0</v>
       </c>
       <c r="F25" s="19">
         <v>0</v>
       </c>
       <c r="G25" s="13">
         <f t="shared" si="3"/>
-        <v>1858.6684</v>
+        <v>0</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="4"/>
-        <v>1618.6684</v>
+        <v>0</v>
       </c>
       <c r="I25" s="13">
-        <v>9521.9908333333333</v>
+        <v>9189.5575000000008</v>
       </c>
       <c r="J25" s="13">
         <f t="shared" si="5"/>
-        <v>19.519745739445767</v>
+        <v>0</v>
       </c>
       <c r="K25" s="13">
         <f t="shared" si="6"/>
-        <v>2.5204813174135765</v>
+        <v>0</v>
       </c>
       <c r="L25" s="13">
         <f t="shared" si="7"/>
-        <v>16.999264422032191</v>
+        <v>0</v>
       </c>
       <c r="M25" s="13">
         <f t="shared" si="9"/>
-        <v>12.07396547953638</v>
+        <v>3.2379243618769364</v>
       </c>
       <c r="N25" s="18">
         <f t="shared" si="10"/>
-        <v>7.7757610880437413</v>
+        <v>0</v>
       </c>
       <c r="O25" s="18">
         <f t="shared" si="11"/>
-        <v>0.89596173073589114</v>
+        <v>0.92332082614902178</v>
       </c>
       <c r="P25" s="13"/>
       <c r="R25" s="16">
         <f t="shared" si="8"/>
-        <v>45170</v>
+        <v>45352</v>
       </c>
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
-      <c r="U25" s="17">
-        <v>240</v>
-      </c>
-      <c r="V25" s="17">
-        <v>240</v>
-      </c>
-      <c r="W25" s="17">
-        <v>240</v>
-      </c>
-      <c r="X25" s="17">
-        <v>240</v>
-      </c>
-      <c r="Y25" s="17">
-        <v>240</v>
-      </c>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
@@ -6913,12 +12390,12 @@
     <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
-        <v>45200</v>
+        <v>45383</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13">
         <f>++'Completion Factors'!J12</f>
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
       <c r="D26" s="13">
         <f t="shared" si="1"/>
@@ -6940,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13">
-        <v>9486.600833333332</v>
+        <v>9146.1475000000009</v>
       </c>
       <c r="J26" s="13">
         <f t="shared" si="5"/>
@@ -6956,20 +12433,20 @@
       </c>
       <c r="M26" s="13">
         <f t="shared" si="9"/>
-        <v>9.6523703680691515</v>
-      </c>
-      <c r="N26" s="18">
+        <v>3.2579723416546367</v>
+      </c>
+      <c r="N26" s="18" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O26" s="18">
         <f t="shared" si="11"/>
-        <v>0.90161565673105781</v>
+        <v>0.92858963712640374</v>
       </c>
       <c r="P26" s="13"/>
       <c r="R26" s="16">
         <f t="shared" si="8"/>
-        <v>45200</v>
+        <v>45383</v>
       </c>
       <c r="S26" s="17"/>
       <c r="T26" s="17"/>
@@ -7001,12 +12478,12 @@
     <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
-        <v>45231</v>
+        <v>45413</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13">
         <f>++'Completion Factors'!J11</f>
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
       <c r="D27" s="13">
         <f t="shared" si="1"/>
@@ -7028,7 +12505,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="13">
-        <v>9353.5275000000001</v>
+        <v>9113.9908333333333</v>
       </c>
       <c r="J27" s="13">
         <f t="shared" si="5"/>
@@ -7044,20 +12521,20 @@
       </c>
       <c r="M27" s="13">
         <f t="shared" si="9"/>
-        <v>7.5053195238206403</v>
-      </c>
-      <c r="N27" s="18">
+        <v>3.280070615314719</v>
+      </c>
+      <c r="N27" s="18" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O27" s="18">
         <f t="shared" si="11"/>
-        <v>0.89892191674941724</v>
+        <v>0.92253243539681096</v>
       </c>
       <c r="P27" s="13"/>
       <c r="R27" s="16">
         <f t="shared" si="8"/>
-        <v>45231</v>
+        <v>45413</v>
       </c>
       <c r="S27" s="17"/>
       <c r="T27" s="17"/>
@@ -7089,12 +12566,14 @@
     <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
-        <v>45261</v>
-      </c>
-      <c r="B28" s="13"/>
+        <v>45444</v>
+      </c>
+      <c r="B28" s="13">
+        <v>250</v>
+      </c>
       <c r="C28" s="13">
         <f>++'Completion Factors'!J10</f>
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
       <c r="D28" s="13">
         <f t="shared" si="1"/>
@@ -7109,22 +12588,22 @@
       </c>
       <c r="G28" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I28" s="13">
-        <v>9322.3475000000017</v>
+        <v>9074.6774999999998</v>
       </c>
       <c r="J28" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.7549188387135524</v>
       </c>
       <c r="K28" s="13">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.7549188387135519</v>
       </c>
       <c r="L28" s="13">
         <f t="shared" si="7"/>
@@ -7132,25 +12611,31 @@
       </c>
       <c r="M28" s="13">
         <f t="shared" si="9"/>
-        <v>7.0908117316322796</v>
+        <v>3.096651203533578</v>
       </c>
       <c r="N28" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.56354088868906549</v>
       </c>
       <c r="O28" s="18">
         <f t="shared" si="11"/>
-        <v>0.89903077159350653</v>
+        <v>0.92421569363834377</v>
       </c>
       <c r="P28" s="20"/>
       <c r="R28" s="16">
         <f t="shared" si="8"/>
-        <v>45261</v>
+        <v>45444</v>
       </c>
       <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
+      <c r="T28" s="17">
+        <v>250</v>
+      </c>
+      <c r="U28" s="17">
+        <v>250</v>
+      </c>
+      <c r="V28" s="17">
+        <v>250</v>
+      </c>
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
       <c r="Y28" s="17"/>
@@ -7177,71 +12662,67 @@
     <row r="29" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
-        <v>45292</v>
-      </c>
-      <c r="B29" s="13">
-        <v>2981</v>
-      </c>
+        <v>45474</v>
+      </c>
+      <c r="B29" s="13"/>
       <c r="C29" s="13">
         <f>++'Completion Factors'!J9</f>
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
       <c r="D29" s="13">
         <f t="shared" si="1"/>
-        <v>20105.210418333332</v>
+        <v>0</v>
       </c>
       <c r="E29" s="13">
         <f t="shared" si="2"/>
-        <v>20105.210418333332</v>
+        <v>0</v>
       </c>
       <c r="F29" s="13">
         <f>ROUND(+I29*J29/100,0)-D29-B29</f>
-        <v>-17977.210418333332</v>
+        <v>4914</v>
       </c>
       <c r="G29" s="13">
         <f t="shared" si="3"/>
-        <v>5109</v>
+        <v>4914</v>
       </c>
       <c r="H29" s="14">
         <f t="shared" si="4"/>
-        <v>2128</v>
+        <v>4914</v>
       </c>
       <c r="I29" s="13">
-        <v>9289.930833333332</v>
+        <v>8934.4874999999993</v>
       </c>
       <c r="J29" s="19">
         <v>55</v>
       </c>
       <c r="K29" s="13">
         <f t="shared" si="6"/>
-        <v>32.088505861678016</v>
+        <v>0</v>
       </c>
       <c r="L29" s="13">
         <f t="shared" si="7"/>
-        <v>22.911494138321984</v>
+        <v>55</v>
       </c>
       <c r="M29" s="13">
         <f t="shared" si="9"/>
-        <v>11.316143183175189</v>
-      </c>
-      <c r="N29" s="18">
+        <v>7.5342137316413993</v>
+      </c>
+      <c r="N29" s="18" t="e">
         <f t="shared" si="10"/>
-        <v>20.237694999999999</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O29" s="18">
         <f t="shared" si="11"/>
-        <v>0.91808190936105438</v>
+        <v>0.91814587950052795</v>
       </c>
       <c r="P29" s="13"/>
       <c r="R29" s="16">
         <f t="shared" si="8"/>
-        <v>45292</v>
+        <v>45474</v>
       </c>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
-      <c r="U29" s="17">
-        <v>2981</v>
-      </c>
+      <c r="U29" s="17"/>
       <c r="V29" s="17"/>
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
@@ -7269,12 +12750,12 @@
     <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <f t="shared" si="0"/>
-        <v>45323</v>
+        <v>45505</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13">
         <f>++'Completion Factors'!J8</f>
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
       <c r="D30" s="13">
         <f t="shared" si="1"/>
@@ -7286,18 +12767,18 @@
       </c>
       <c r="F30" s="13">
         <f>ROUND(+I30*J30/100,0)-D30-B30</f>
-        <v>4638</v>
+        <v>4435</v>
       </c>
       <c r="G30" s="13">
         <f t="shared" si="3"/>
-        <v>4638</v>
+        <v>4435</v>
       </c>
       <c r="H30" s="14">
         <f t="shared" si="4"/>
-        <v>4638</v>
+        <v>4435</v>
       </c>
       <c r="I30" s="13">
-        <v>9275.0475000000006</v>
+        <v>8869.6558333333342</v>
       </c>
       <c r="J30" s="19">
         <v>50</v>
@@ -7312,20 +12793,20 @@
       </c>
       <c r="M30" s="13">
         <f t="shared" si="9"/>
-        <v>12.753687748548383</v>
-      </c>
-      <c r="N30" s="18">
+        <v>11.593630237682833</v>
+      </c>
+      <c r="N30" s="18" t="e">
         <f t="shared" si="10"/>
-        <v>1.6315005364124606</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O30" s="18">
         <f t="shared" si="11"/>
-        <v>0.92689786362379234</v>
+        <v>0.92546516558808933</v>
       </c>
       <c r="P30" s="13"/>
       <c r="R30" s="16">
         <f t="shared" si="8"/>
-        <v>45323</v>
+        <v>45505</v>
       </c>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
@@ -7357,12 +12838,12 @@
     <row r="31" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <f>DATE(YEAR(H4),MONTH(H4),1)</f>
-        <v>45352</v>
+        <v>45536</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13">
         <f>+'Completion Factors'!J7</f>
-        <v>0.12912470024238859</v>
+        <v>1</v>
       </c>
       <c r="D31" s="13">
         <f t="shared" si="1"/>
@@ -7374,18 +12855,18 @@
       </c>
       <c r="F31" s="13">
         <f>ROUND(+I31*J31/100,0)-D31-B31</f>
-        <v>4595</v>
+        <v>4435</v>
       </c>
       <c r="G31" s="13">
         <f t="shared" si="3"/>
-        <v>4595</v>
+        <v>4435</v>
       </c>
       <c r="H31" s="14">
         <f t="shared" si="4"/>
-        <v>4595</v>
+        <v>4435</v>
       </c>
       <c r="I31" s="13">
-        <v>9189.5575000000008</v>
+        <v>8869.6558333333323</v>
       </c>
       <c r="J31" s="19">
         <v>50</v>
@@ -7400,20 +12881,20 @@
       </c>
       <c r="M31" s="13">
         <f t="shared" si="9"/>
-        <v>15.949033443270535</v>
+        <v>15.478647259929195</v>
       </c>
       <c r="N31" s="18">
         <f t="shared" si="10"/>
-        <v>4.7849635416666665</v>
+        <v>19.837480902777777</v>
       </c>
       <c r="O31" s="18">
         <f t="shared" si="11"/>
-        <v>0.92332082614902178</v>
+        <v>0.9314917424918755</v>
       </c>
       <c r="P31" s="13"/>
       <c r="R31" s="16">
         <f t="shared" si="8"/>
-        <v>45352</v>
+        <v>45536</v>
       </c>
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
@@ -7444,10 +12925,10 @@
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.35">
       <c r="H32" s="21" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="R32" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
@@ -7483,12 +12964,12 @@
       <c r="G33" s="13"/>
       <c r="H33" s="14">
         <f>SUM(H8:H31)</f>
-        <v>14529.0036</v>
+        <v>13784</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="22">
         <f>SUM(G20:G31)/SUM(I20:I31)</f>
-        <v>0.15949033443270536</v>
+        <v>0.15478647259929196</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -7512,13 +12993,13 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K35" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.35">
@@ -7527,16 +13008,16 @@
       <c r="F36" s="23"/>
       <c r="H36" s="25">
         <f>H33*(1+H35)</f>
-        <v>15618.67887</v>
+        <v>14817.8</v>
       </c>
       <c r="I36" s="26"/>
       <c r="J36" s="27" t="e">
         <f>(H36-I36)/I36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K36" s="27">
+      <c r="K36" s="27" t="e">
         <f>(VLOOKUP(DATE(YEAR(H4),MONTH(H4),DAY(1)),[1]Premium!$B$3:$D$200,3,FALSE)-VLOOKUP(DATE(YEAR(H4),MONTH(H4)-3,DAY(1)),[1]Premium!$B$3:$D$200,3,FALSE))/VLOOKUP(DATE(YEAR(H4),MONTH(H4),DAY(1)),[1]Premium!$B$3:$D$200,3,FALSE)</f>
-        <v>-9.9892366423526058E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.35">

--- a/Process Results/Unified_IBNP_SLI.xlsx
+++ b/Process Results/Unified_IBNP_SLI.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1456321871469668</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6354303511247301</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.4997611655603246</v>
+        <v>0.603778664612288</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.2369569843117205</v>
+        <v>1</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1456321871469668</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6354303511247301</v>
+        <v>1</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4997611655603246</v>
+        <v>0.603778664612288</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2369569843117205</v>
+        <v>1</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1456321871469668</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6354303511247301</v>
+        <v>1</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4997611655603246</v>
+        <v>0.603778664612288</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2369569843117205</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1456321871469668</v>
+        <v>1</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6354303511247301</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.4997611655603246</v>
+        <v>0.603778664612288</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.2369569843117205</v>
+        <v>1</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1456321871469668</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6354303511247301</v>
+        <v>1</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4997611655603246</v>
+        <v>0.603778664612288</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2369569843117205</v>
+        <v>1</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1456321871469668</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6354303511247301</v>
+        <v>1</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4997611655603246</v>
+        <v>0.603778664612288</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2369569843117205</v>
+        <v>1</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1456321871469668</v>
+        <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6354303511247301</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4997611655603246</v>
+        <v>0.603778664612288</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.2369569843117205</v>
+        <v>1</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2912643742939336</v>
+        <v>1</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7176423642082532</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5147857399405125</v>
+        <v>0.6456471649032297</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4143567412152497</v>
+        <v>1</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2912643742939336</v>
+        <v>1</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7176423642082532</v>
+        <v>1</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8106863510503146</v>
+        <v>0.6456471649032297</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4143567412152497</v>
+        <v>1</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2912643742939336</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7176423642082532</v>
+        <v>1</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.8106863510503146</v>
+        <v>0.6456471649032297</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.4143567412152497</v>
+        <v>1</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2912643742939336</v>
+        <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7176423642082532</v>
+        <v>1</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.819734606222667</v>
+        <v>0.6456471649032297</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4143567412152497</v>
+        <v>1</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4848,58 +4848,58 @@
         <v/>
       </c>
       <c r="G38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="U38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="W38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="X38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="15.6" customHeight="1">
@@ -4914,64 +4914,64 @@
         <v/>
       </c>
       <c r="D39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v/>
+        <v>10.22223333333333</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="W39" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="X39" s="4" t="n">
         <v/>
@@ -4992,58 +4992,58 @@
         <v/>
       </c>
       <c r="E40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="U40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V40" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="W40" t="n">
         <v/>
@@ -5076,46 +5076,46 @@
         <v/>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K41" s="4" t="n">
-        <v>4.007</v>
+        <v/>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="R41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="S41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="T41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="U41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5157,37 +5157,37 @@
         <v/>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="R42" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="S42" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="T42" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="U42" s="4" t="n">
         <v/>
@@ -5211,55 +5211,55 @@
         <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -5295,43 +5295,43 @@
         <v/>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I44" s="4" t="n">
-        <v>21.46118897604046</v>
+        <v/>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="R44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5370,40 +5370,40 @@
         <v/>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="R45" s="4" t="n">
         <v/>
@@ -5439,16 +5439,16 @@
         <v/>
       </c>
       <c r="D46" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
         <v>1</v>
@@ -5523,31 +5523,31 @@
         <v/>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5604,22 +5604,22 @@
         <v/>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="N48" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5673,25 +5673,25 @@
         <v/>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5763,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>10.22223333333333</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5817,25 +5817,25 @@
         <v/>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -6036,22 +6036,22 @@
         <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H54" s="4" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6111,19 +6111,19 @@
         <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6195,7 +6195,7 @@
         <v/>
       </c>
       <c r="F56" s="4" t="n">
-        <v/>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6264,10 +6264,10 @@
         <v/>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6704,31 +6704,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.5009461837353851</v>
+        <v>0.6280102985770791</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.4997611655603246</v>
+        <v>0.603778664612288</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.6354303511247301</v>
+        <v>1</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.1456321871469668</v>
+        <v>1</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.1043995231018954</v>
+        <v>0.3378516824857375</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.09487421409797855</v>
+        <v>0.2636716690065086</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.3153282369866883</v>
+        <v>1</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.1227271611571262</v>
+        <v>1</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.2369569843117205</v>
+        <v>1</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
@@ -6767,31 +6767,31 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.5009461837353851</v>
+        <v>0.6280102985770791</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.4997611655603246</v>
+        <v>0.603778664612288</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.6354303511247301</v>
+        <v>1</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.1456321871469668</v>
+        <v>1</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.1043995231018954</v>
+        <v>0.3378516824857375</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.09487421409797855</v>
+        <v>0.2636716690065086</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.3153282369866883</v>
+        <v>1</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.1227271611571262</v>
+        <v>1</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.2369569843117205</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
@@ -6831,31 +6831,31 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.5009461837353851</v>
+        <v>0.6280102985770791</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.4997611655603246</v>
+        <v>0.603778664612288</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.6354303511247301</v>
+        <v>1</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.1456321871469668</v>
+        <v>1</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.1043995231018954</v>
+        <v>0.3378516824857375</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.09487421409797855</v>
+        <v>0.2636716690065086</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.3153282369866883</v>
+        <v>1</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.1227271611571262</v>
+        <v>1</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.2369569843117205</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
@@ -6871,7 +6871,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="R4" s="22" t="n">
         <v>1</v>
@@ -6883,10 +6883,10 @@
         <v>1</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -6895,31 +6895,31 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.5009461837353851</v>
+        <v>0.6280102985770791</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.4997611655603246</v>
+        <v>0.603778664612288</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.6354303511247301</v>
+        <v>1</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.1456321871469668</v>
+        <v>1</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.1043995231018954</v>
+        <v>0.3378516824857375</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.09487421409797855</v>
+        <v>0.2636716690065086</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.3153282369866883</v>
+        <v>1</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.1227271611571262</v>
+        <v>1</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.2369569843117205</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
@@ -6959,31 +6959,31 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.5009461837353851</v>
+        <v>0.6280102985770791</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.4997611655603246</v>
+        <v>0.603778664612288</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.6354303511247301</v>
+        <v>1</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.1456321871469668</v>
+        <v>1</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.1043995231018954</v>
+        <v>0.3378516824857375</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.09487421409797855</v>
+        <v>0.2636716690065086</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.3153282369866883</v>
+        <v>1</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.1227271611571262</v>
+        <v>1</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.2369569843117205</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
@@ -7023,31 +7023,31 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.5009461837353851</v>
+        <v>0.6280102985770791</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.4997611655603246</v>
+        <v>0.603778664612288</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.6354303511247301</v>
+        <v>1</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.1456321871469668</v>
+        <v>1</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.1043995231018954</v>
+        <v>0.3378516824857375</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.09487421409797855</v>
+        <v>0.2636716690065086</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.3153282369866883</v>
+        <v>1</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.1227271611571262</v>
+        <v>1</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.2369569843117205</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.5009461837353851</v>
+        <v>0.6280102985770791</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.4997611655603246</v>
+        <v>0.603778664612288</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.6354303511247301</v>
+        <v>1</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.1456321871469668</v>
+        <v>1</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.1043995231018954</v>
+        <v>0.3378516824857375</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.09487421409797855</v>
+        <v>0.2636716690065086</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.3153282369866883</v>
+        <v>1</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.1227271611571262</v>
+        <v>1</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.2369569843117205</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.029876386451059</v>
+        <v>1.047281323877069</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.030063509163107</v>
+        <v>1.069344120196475</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.129380053908356</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.111111111111111</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.125</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.564690026954178</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.5159126455118466</v>
+        <v>0.6577034569022365</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.5147857399405125</v>
+        <v>0.6456471649032297</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.7176423642082532</v>
+        <v>1</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.2912643742939336</v>
+        <v>1</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.1159994701132172</v>
+        <v>0.3941602962333604</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.1067334908602259</v>
+        <v>0.3515622253420114</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.3941602962333604</v>
+        <v>1</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.2454543223142524</v>
+        <v>1</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.4143567412152497</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.571363598281289</v>
+        <v>1</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.574803434034509</v>
+        <v>1</v>
       </c>
       <c r="P9" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="R9" s="22" t="n">
-        <v>3.273465441782274</v>
+        <v>1</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>3.557648622005058</v>
+        <v>1</v>
       </c>
       <c r="T9" s="22" t="n">
         <v>1</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -7215,31 +7215,31 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.8106863510503146</v>
+        <v>0.6577034569022365</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.8106863510503146</v>
+        <v>0.6456471649032297</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.7176423642082532</v>
+        <v>1</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.2912643742939336</v>
+        <v>1</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.379720256680672</v>
+        <v>0.3941602962333604</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.379720256680672</v>
+        <v>0.3515622253420114</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.3941602962333604</v>
+        <v>1</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.2454543223142524</v>
+        <v>1</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.4143567412152497</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
@@ -7279,41 +7279,41 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.8106863510503146</v>
+        <v>0.6577034569022365</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.8106863510503146</v>
+        <v>0.6456471649032297</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.7176423642082532</v>
+        <v>1</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.2912643742939336</v>
+        <v>1</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.379720256680672</v>
+        <v>0.3941602962333604</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.379720256680672</v>
+        <v>0.3515622253420114</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.3941602962333604</v>
+        <v>1</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.2454543223142524</v>
+        <v>1</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.4143567412152497</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.011161227965204</v>
+        <v>1</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.011161227965204</v>
+        <v>1</v>
       </c>
       <c r="P11" s="22" t="n">
         <v>1</v>
@@ -7322,10 +7322,10 @@
         <v>1</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.3007</v>
+        <v>1</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.3007</v>
+        <v>1</v>
       </c>
       <c r="T11" s="22" t="n">
         <v>1</v>
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.819734606222667</v>
+        <v>0.6577034569022365</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.819734606222667</v>
+        <v>0.6456471649032297</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.7176423642082532</v>
+        <v>1</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.2912643742939336</v>
+        <v>1</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.4939021378645501</v>
+        <v>0.3941602962333604</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.4939021378645501</v>
+        <v>0.3515622253420114</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.3941602962333604</v>
+        <v>1</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.2454543223142524</v>
+        <v>1</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.4143567412152497</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.219907019185142</v>
+        <v>1.520442061700527</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.219907019185142</v>
+        <v>1.548833564768895</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.393451738462042</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>3.433306948109059</v>
+        <v>1</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>2.024692592592593</v>
+        <v>2.537038888888889</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>2.024692592592593</v>
+        <v>2.844446666666667</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>2.537038888888889</v>
+        <v>1</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>4.074077777777778</v>
+        <v>1</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>2.41337934328555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -7447,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="R13" s="22" t="n">
         <v>1</v>
@@ -7459,10 +7459,10 @@
         <v>1</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
@@ -8014,31 +8014,31 @@
         <v/>
       </c>
       <c r="N22" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="O22" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="P22" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q22" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R22" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="S22" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -8078,31 +8078,31 @@
         <v/>
       </c>
       <c r="N23" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="O23" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="P23" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q23" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R23" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="S23" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -8142,31 +8142,31 @@
         <v/>
       </c>
       <c r="N24" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="O24" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="P24" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q24" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R24" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="S24" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>11239.10166666667</v>
+        <v>10118.8475</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8620,61 +8620,61 @@
         <v/>
       </c>
       <c r="X8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v/>
+        <v>275</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v/>
+        <v>3066.67</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>11208.10166666667</v>
+        <v>10006.5475</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8738,67 +8738,67 @@
         <v/>
       </c>
       <c r="U9" s="22" t="n">
-        <v/>
+        <v>300</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v/>
+        <v>300</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v/>
+        <v>300</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v/>
+        <v>300</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v/>
+        <v>300</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v/>
+        <v>300</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v/>
+        <v>300</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v/>
+        <v>300</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v/>
+        <v>300</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v/>
+        <v>3066.67</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v/>
+        <v>3066.67</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v/>
+        <v>3066.67</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v/>
+        <v>3066.67</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v/>
+        <v>3066.67</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v/>
+        <v>3066.67</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v/>
+        <v>3066.67</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v/>
+        <v>3066.67</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v/>
+        <v>3066.67</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v/>
+        <v>3066.67</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v/>
+        <v>3066.67</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v/>
+        <v>3066.67</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>11190.32</v>
+        <v>9952.724166666667</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8868,61 +8868,61 @@
         <v/>
       </c>
       <c r="V10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v/>
+        <v>1040</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>200.35</v>
+        <v/>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>11030.08916666667</v>
+        <v>9849.504166666668</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -9004,49 +9004,49 @@
         <v/>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>50</v>
+        <v/>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>50</v>
+        <v/>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>50</v>
+        <v/>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>50</v>
+        <v/>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>200.35</v>
+        <v/>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>200.35</v>
+        <v/>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>200.35</v>
+        <v/>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>200.35</v>
+        <v/>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>200.35</v>
+        <v/>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>200.35</v>
+        <v/>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>200.35</v>
+        <v/>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>200.35</v>
+        <v/>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>200.35</v>
+        <v/>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>200.35</v>
+        <v/>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>200.35</v>
+        <v/>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>341.84</v>
+        <v/>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>10998.30583333333</v>
+        <v>9879.317499999999</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9137,40 +9137,40 @@
         <v/>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>341.84</v>
+        <v/>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>341.84</v>
+        <v/>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>341.84</v>
+        <v/>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>341.84</v>
+        <v/>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>341.84</v>
+        <v/>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>341.84</v>
+        <v/>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>341.84</v>
+        <v/>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>341.84</v>
+        <v/>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>341.84</v>
+        <v/>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>341.84</v>
+        <v/>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>341.84</v>
+        <v/>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>341.84</v>
+        <v/>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v/>
+        <v>480</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>11000.21583333333</v>
+        <v>9818.7875</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9243,58 +9243,58 @@
         <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v/>
+        <v>480</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v/>
+        <v>480</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v/>
+        <v>480</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v/>
+        <v>480</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v/>
+        <v>480</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v/>
+        <v>480</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v/>
+        <v>480</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v/>
+        <v>480</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v/>
+        <v>480</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v/>
+        <v>480</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v/>
+        <v>480</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v/>
+        <v>480</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>5007.110000000001</v>
+        <v/>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>10691.37583333333</v>
+        <v>9731.010833333334</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9379,46 +9379,46 @@
         <v/>
       </c>
       <c r="W14" s="22" t="n">
-        <v>233.31</v>
+        <v/>
       </c>
       <c r="X14" s="22" t="n">
-        <v>233.31</v>
+        <v/>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>233.31</v>
+        <v/>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>233.31</v>
+        <v/>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>5007.110000000001</v>
+        <v/>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>5007.110000000001</v>
+        <v/>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>5007.110000000001</v>
+        <v/>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>5007.110000000001</v>
+        <v/>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>5007.110000000001</v>
+        <v/>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>5007.110000000001</v>
+        <v/>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>5007.110000000001</v>
+        <v/>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>5007.110000000001</v>
+        <v/>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>5007.110000000001</v>
+        <v/>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>5007.110000000001</v>
+        <v/>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>266.79</v>
+        <v/>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>10627.67583333333</v>
+        <v>9583.997499999999</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9506,43 +9506,43 @@
         <v/>
       </c>
       <c r="W15" s="22" t="n">
-        <v>266.79</v>
+        <v/>
       </c>
       <c r="X15" s="22" t="n">
-        <v>266.79</v>
+        <v/>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>266.79</v>
+        <v/>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>266.79</v>
+        <v/>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>266.79</v>
+        <v/>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>266.79</v>
+        <v/>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>266.79</v>
+        <v/>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>266.79</v>
+        <v/>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>266.79</v>
+        <v/>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>266.79</v>
+        <v/>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>266.79</v>
+        <v/>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>266.79</v>
+        <v/>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>266.79</v>
+        <v/>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>3000</v>
+        <v>240</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>10521.77916666667</v>
+        <v>9521.990833333333</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9627,46 +9627,46 @@
         <v/>
       </c>
       <c r="U16" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>3000</v>
+        <v>240</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>3000</v>
+        <v>240</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>3000</v>
+        <v>240</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>3000</v>
+        <v>240</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>3000</v>
+        <v>240</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>3000</v>
+        <v>240</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>3000</v>
+        <v>240</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>3000</v>
+        <v>240</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>3000</v>
+        <v>240</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>3000</v>
+        <v>240</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>2628</v>
+        <v/>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>10405.2725</v>
+        <v>9486.600833333332</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9763,34 +9763,34 @@
         <v/>
       </c>
       <c r="X17" s="22" t="n">
-        <v>2628</v>
+        <v/>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>2628</v>
+        <v/>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>2628</v>
+        <v/>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>2628</v>
+        <v/>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>2628</v>
+        <v/>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>2628</v>
+        <v/>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>2628</v>
+        <v/>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>2628</v>
+        <v/>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>2628</v>
+        <v/>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>2628</v>
+        <v/>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>562</v>
+        <v/>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>10369.33083333333</v>
+        <v>9353.5275</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9896,25 +9896,25 @@
         <v/>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>562</v>
+        <v/>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>562</v>
+        <v/>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>562</v>
+        <v/>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>562</v>
+        <v/>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>562</v>
+        <v/>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>562</v>
+        <v/>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>562</v>
+        <v/>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>275</v>
+        <v/>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>10118.8475</v>
+        <v>9322.3475</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10020,28 +10020,28 @@
         <v/>
       </c>
       <c r="X19" s="22" t="n">
-        <v>275</v>
+        <v/>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>275</v>
+        <v/>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>275</v>
+        <v/>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>275</v>
+        <v/>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>275</v>
+        <v/>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>275</v>
+        <v/>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>275</v>
+        <v/>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>275</v>
+        <v/>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>3066.67</v>
+        <v>2981</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>10006.5475</v>
+        <v>9289.930833333332</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10147,34 +10147,34 @@
         <v/>
       </c>
       <c r="U20" s="22" t="n">
-        <v>300</v>
+        <v>2981</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>300</v>
+        <v>2981</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>300</v>
+        <v>2981</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>300</v>
+        <v>2981</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>300</v>
+        <v>2981</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>300</v>
+        <v>2981</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>300</v>
+        <v>2981</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>300</v>
+        <v>2981</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>300</v>
+        <v>2981</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>3066.67</v>
+        <v>2981</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>9952.724166666667</v>
+        <v>9275.047500000001</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10286,28 +10286,28 @@
         <v/>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="W21" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="X21" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>9849.504166666668</v>
+        <v>9189.557500000001</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>9879.317499999999</v>
+        <v>9146.147500000001</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>480</v>
+        <v/>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>9818.7875</v>
+        <v>9113.990833333333</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10690,25 +10690,25 @@
         <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="U24" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="V24" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="W24" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="X24" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>480</v>
+        <v/>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v/>
+        <v>250</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>9731.010833333334</v>
+        <v>9074.6775</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10828,22 +10828,22 @@
         <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v/>
+        <v>250</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v/>
+        <v>250</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v/>
+        <v>250</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v/>
+        <v>250</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v/>
+        <v>250</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v/>
+        <v>250</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v/>
+        <v>50.59</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>9583.997499999999</v>
+        <v>8934.487500000001</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10975,10 +10975,10 @@
         <v/>
       </c>
       <c r="W26" s="22" t="n">
-        <v/>
+        <v>50.59</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v/>
+        <v>50.59</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>9521.990833333333</v>
+        <v>8869.655833333332</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11107,13 +11107,13 @@
         <v/>
       </c>
       <c r="U27" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="V27" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="W27" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>9486.600833333332</v>
+        <v>8869.655833333334</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>9353.5275</v>
+        <v>8826.259166666667</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>55</v>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>9322.347500000002</v>
+        <v>8815.279166666667</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>50</v>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>9289.930833333334</v>
+        <v>8785.0975</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>50</v>

--- a/Process Results/Unified_IBNP_SLI.xlsx
+++ b/Process Results/Unified_IBNP_SLI.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1</v>
+        <v>0.2765304453673555</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1</v>
+        <v>0.2918160919354576</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.603778664612288</v>
+        <v>0.5232462816607634</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>1</v>
+        <v>0.2839677153703803</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1</v>
+        <v>0.2765304453673555</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1</v>
+        <v>0.2918160919354576</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.603778664612288</v>
+        <v>0.5232462816607634</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1</v>
+        <v>0.2839677153703803</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1</v>
+        <v>0.2765304453673555</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1</v>
+        <v>0.2918160919354576</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.603778664612288</v>
+        <v>0.5232462816607634</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1</v>
+        <v>0.2839677153703803</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1</v>
+        <v>0.553060890734711</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1</v>
+        <v>0.5836321838709152</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.603778664612288</v>
+        <v>0.9143596639122431</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>1</v>
+        <v>0.5679354307407607</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1</v>
+        <v>0.553060890734711</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1</v>
+        <v>0.5836321838709152</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.603778664612288</v>
+        <v>0.9143596639122431</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1</v>
+        <v>0.5679354307407607</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1</v>
+        <v>0.5782969354043914</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1</v>
+        <v>0.6099789877693091</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.603778664612288</v>
+        <v>0.9389062012780899</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1</v>
+        <v>0.5937156049512918</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1</v>
+        <v>0.5782969354043914</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1</v>
+        <v>0.6099789877693091</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.603778664612288</v>
+        <v>0.9389062012780899</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>1</v>
+        <v>0.5937156049512918</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1</v>
+        <v>0.5782969354043914</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1</v>
+        <v>0.6099789877693091</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6456471649032297</v>
+        <v>0.9389062012780899</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1</v>
+        <v>0.5937156049512918</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1</v>
+        <v>0.6607741886849345</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1</v>
+        <v>0.6607741886849345</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6456471649032297</v>
+        <v>0.9520207270459162</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1</v>
+        <v>0.6607741886849345</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4075,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.6456471649032297</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
@@ -4113,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6456471649032297</v>
+        <v>1</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
@@ -4836,22 +4836,22 @@
         <v/>
       </c>
       <c r="C38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>1</v>
@@ -4914,64 +4914,64 @@
         <v/>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="L39" s="4" t="n">
-        <v>10.22223333333333</v>
+        <v/>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="R39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="S39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="T39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="U39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="V39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="W39" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="X39" s="4" t="n">
         <v/>
@@ -4992,55 +4992,55 @@
         <v/>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="R40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="T40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="U40" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="V40" s="4" t="n">
         <v>1</v>
@@ -5064,58 +5064,58 @@
         <v/>
       </c>
       <c r="D41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5187,7 +5187,7 @@
         <v/>
       </c>
       <c r="T42" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="U42" s="4" t="n">
         <v/>
@@ -5211,55 +5211,55 @@
         <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H43" s="4" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="R43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="S43" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -5364,46 +5364,46 @@
         <v/>
       </c>
       <c r="D45" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R45" s="4" t="n">
         <v/>
@@ -5439,40 +5439,40 @@
         <v/>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P46" s="4" t="n">
         <v>1</v>
@@ -5736,7 +5736,7 @@
         <v/>
       </c>
       <c r="C50" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>1</v>
@@ -5757,7 +5757,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1</v>
+        <v>1.72</v>
       </c>
       <c r="K50" s="4" t="n">
         <v>1</v>
@@ -5820,22 +5820,22 @@
         <v/>
       </c>
       <c r="F51" s="4" t="n">
-        <v/>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v/>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v/>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v/>
+        <v>1.988930618699347</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5976,10 +5976,10 @@
         <v/>
       </c>
       <c r="H53" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6111,16 +6111,16 @@
         <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E55" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1</v>
+        <v>1.048636363636364</v>
       </c>
       <c r="G55" s="4" t="n">
         <v>1</v>
@@ -6192,10 +6192,10 @@
         <v/>
       </c>
       <c r="E56" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6339,7 +6339,7 @@
         <v/>
       </c>
       <c r="D58" s="4" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6411,7 +6411,7 @@
         <v/>
       </c>
       <c r="C59" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6704,31 +6704,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.6280102985770791</v>
+        <v>0.7473350218233804</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.603778664612288</v>
+        <v>0.5232462816607634</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>1</v>
+        <v>0.2918160919354576</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>1</v>
+        <v>0.2765304453673555</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.3378516824857375</v>
+        <v>0.5323281039242882</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.2636716690065086</v>
+        <v>0.4486164289823291</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>1</v>
+        <v>0.2720893213327485</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>1</v>
+        <v>0.2401653646925153</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>1</v>
+        <v>0.2839677153703803</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
@@ -6767,31 +6767,31 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.6280102985770791</v>
+        <v>0.7473350218233804</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.603778664612288</v>
+        <v>0.5232462816607634</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>1</v>
+        <v>0.2918160919354576</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>1</v>
+        <v>0.2765304453673555</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.3378516824857375</v>
+        <v>0.5323281039242882</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.2636716690065086</v>
+        <v>0.4486164289823291</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>1</v>
+        <v>0.2720893213327485</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>1</v>
+        <v>0.2401653646925153</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>1</v>
+        <v>0.2839677153703803</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
@@ -6807,7 +6807,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R3" s="22" t="n">
         <v>1</v>
@@ -6819,10 +6819,10 @@
         <v>1</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.6280102985770791</v>
+        <v>0.7473350218233804</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.603778664612288</v>
+        <v>0.5232462816607634</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>1</v>
+        <v>0.2918160919354576</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>1</v>
+        <v>0.2765304453673555</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.3378516824857375</v>
+        <v>0.5323281039242882</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.2636716690065086</v>
+        <v>0.4486164289823291</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>1</v>
+        <v>0.2720893213327485</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>1</v>
+        <v>0.2401653646925153</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>1</v>
+        <v>0.2839677153703803</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1</v>
+        <v>1.166254774208043</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1</v>
+        <v>1.747474747474747</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -6895,31 +6895,31 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.6280102985770791</v>
+        <v>0.8715830371343894</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.603778664612288</v>
+        <v>0.9143596639122431</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>1</v>
+        <v>0.5836321838709152</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>1</v>
+        <v>0.553060890734711</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.3378516824857375</v>
+        <v>0.6387937247091459</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.2636716690065086</v>
+        <v>0.6729246434734937</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>1</v>
+        <v>0.544178642665497</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>1</v>
+        <v>0.4803307293850307</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>1</v>
+        <v>0.5679354307407607</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.6280102985770791</v>
+        <v>0.8715830371343894</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.603778664612288</v>
+        <v>0.9143596639122431</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>1</v>
+        <v>0.5836321838709152</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>1</v>
+        <v>0.553060890734711</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.3378516824857375</v>
+        <v>0.6387937247091459</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.2636716690065086</v>
+        <v>0.6729246434734937</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>1</v>
+        <v>0.544178642665497</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>1</v>
+        <v>0.4803307293850307</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>1</v>
+        <v>0.5679354307407607</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1</v>
+        <v>1.025320918983708</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1</v>
+        <v>1.026845603906914</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1</v>
+        <v>1.045142822185799</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1</v>
+        <v>1.045629776200873</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1</v>
+        <v>1.006948051948052</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1</v>
+        <v>1.009727272727273</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1</v>
+        <v>1.016212121212121</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1</v>
+        <v>1.024318181818182</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1</v>
+        <v>1.045386299193336</v>
       </c>
     </row>
     <row r="7">
@@ -7023,31 +7023,31 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.6280102985770791</v>
+        <v>0.8936523206052436</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.603778664612288</v>
+        <v>0.9389062012780899</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>1</v>
+        <v>0.6099789877693091</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>1</v>
+        <v>0.5782969354043914</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.3378516824857375</v>
+        <v>0.6432320966925147</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.2636716690065086</v>
+        <v>0.6794703650054631</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>1</v>
+        <v>0.5530009327814377</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>1</v>
+        <v>0.4920114993950758</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>1</v>
+        <v>0.5937156049512918</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.6280102985770791</v>
+        <v>0.8936523206052436</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.603778664612288</v>
+        <v>0.9389062012780899</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>1</v>
+        <v>0.6099789877693091</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>1</v>
+        <v>0.5782969354043914</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.3378516824857375</v>
+        <v>0.6432320966925147</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.2636716690065086</v>
+        <v>0.6794703650054631</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>1</v>
+        <v>0.5530009327814377</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>1</v>
+        <v>0.4920114993950758</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>1</v>
+        <v>0.5937156049512918</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.047281323877069</v>
+        <v>1.059087249710103</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.069344120196475</v>
+        <v>1</v>
       </c>
       <c r="P8" s="22" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="R8" s="22" t="n">
         <v>1.166666666666667</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="T8" s="22" t="n">
         <v>1</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.6577034569022365</v>
+        <v>0.9464557784268589</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.6456471649032297</v>
+        <v>0.9389062012780899</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>1</v>
+        <v>0.6099789877693091</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>1</v>
+        <v>0.5782969354043914</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.3941602962333604</v>
+        <v>0.7504374461412672</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.3515622253420114</v>
+        <v>0.6794703650054631</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>1</v>
+        <v>0.5530009327814377</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>1</v>
+        <v>0.4920114993950758</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>1</v>
+        <v>0.5937156049512918</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1</v>
+        <v>1.011630042377708</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1</v>
+        <v>1.013967876396997</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1</v>
+        <v>1.083273689641971</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v/>
+        <v>1.142620941303914</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1</v>
+        <v>1.164821769783225</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1</v>
+        <v>1.247232654674837</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1</v>
+        <v>1.329643539566449</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v/>
+        <v>1.494465309349674</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>0.5</v>
+        <v>1.112947315472943</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.6577034569022365</v>
+        <v>0.9574630992385895</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.6456471649032297</v>
+        <v>0.9520207270459162</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>1</v>
+        <v>0.6607741886849345</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>1</v>
+        <v>0.6607741886849345</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.3941602962333604</v>
+        <v>0.8741258741258742</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.3515622253420114</v>
+        <v>0.8474576271186441</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>1</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>1</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>1</v>
+        <v>0.6607741886849345</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1</v>
+        <v>1.044426673774934</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1</v>
+        <v>1.050397298704789</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1</v>
+        <v>1.513376304831441</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1</v>
+        <v>1.513376304831441</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1</v>
+        <v>1.144</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1</v>
+        <v>1.513376304831441</v>
       </c>
     </row>
     <row r="11">
@@ -7279,10 +7279,10 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.6577034569022365</v>
+        <v>1</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.6456471649032297</v>
+        <v>1</v>
       </c>
       <c r="D11" s="34" t="n">
         <v>1</v>
@@ -7291,10 +7291,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.3941602962333604</v>
+        <v>1</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.3515622253420114</v>
+        <v>1</v>
       </c>
       <c r="H11" s="34" t="n">
         <v>1</v>
@@ -7343,10 +7343,10 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.6577034569022365</v>
+        <v>1</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.6456471649032297</v>
+        <v>1</v>
       </c>
       <c r="D12" s="34" t="n">
         <v>1</v>
@@ -7355,10 +7355,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.3941602962333604</v>
+        <v>1</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.3515622253420114</v>
+        <v>1</v>
       </c>
       <c r="H12" s="34" t="n">
         <v>1</v>
@@ -7374,10 +7374,10 @@
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.520442061700527</v>
+        <v>1</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.548833564768895</v>
+        <v>1</v>
       </c>
       <c r="P12" s="22" t="n">
         <v>1</v>
@@ -7386,10 +7386,10 @@
         <v>1</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>2.537038888888889</v>
+        <v>1</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>2.844446666666667</v>
+        <v>1</v>
       </c>
       <c r="T12" s="22" t="n">
         <v>1</v>
@@ -7511,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="R14" s="22" t="n">
         <v>1</v>
@@ -7523,10 +7523,10 @@
         <v>1</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="22" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="R18" s="22" t="n">
         <v>1</v>
@@ -7779,10 +7779,10 @@
         <v>1</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45657</v>
+        <v>45808</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>10118.8475</v>
+        <v>9818.7875</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8608,73 +8608,73 @@
         <v/>
       </c>
       <c r="T8" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>275</v>
+        <v>480</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>3066.67</v>
+        <v/>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>10006.5475</v>
+        <v>9731.010833333332</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8738,67 +8738,67 @@
         <v/>
       </c>
       <c r="U9" s="22" t="n">
-        <v>300</v>
+        <v/>
       </c>
       <c r="V9" s="22" t="n">
-        <v>300</v>
+        <v/>
       </c>
       <c r="W9" s="22" t="n">
-        <v>300</v>
+        <v/>
       </c>
       <c r="X9" s="22" t="n">
-        <v>300</v>
+        <v/>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>300</v>
+        <v/>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>300</v>
+        <v/>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>300</v>
+        <v/>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>300</v>
+        <v/>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>300</v>
+        <v/>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>3066.67</v>
+        <v/>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>3066.67</v>
+        <v/>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>3066.67</v>
+        <v/>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>3066.67</v>
+        <v/>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>3066.67</v>
+        <v/>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>3066.67</v>
+        <v/>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>3066.67</v>
+        <v/>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>3066.67</v>
+        <v/>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>3066.67</v>
+        <v/>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>3066.67</v>
+        <v/>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>3066.67</v>
+        <v/>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>3066.67</v>
+        <v/>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>1040</v>
+        <v>480</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>9952.724166666667</v>
+        <v>9583.997499999999</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8868,61 +8868,61 @@
         <v/>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="W10" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="X10" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>1040</v>
+        <v/>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>1040</v>
+        <v>480</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>1040</v>
+        <v>480</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>9849.504166666668</v>
+        <v>9521.990833333333</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8992,61 +8992,61 @@
         <v/>
       </c>
       <c r="U11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v/>
+        <v>240</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v/>
+        <v>96</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>9879.317499999999</v>
+        <v>9486.600833333332</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9167,10 +9167,10 @@
         <v/>
       </c>
       <c r="AK12" s="22" t="n">
-        <v/>
+        <v>96</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v/>
+        <v>96</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>480</v>
+        <v/>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>9818.7875</v>
+        <v>9353.5275</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9243,58 +9243,58 @@
         <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="U13" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="V13" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="W13" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="X13" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>480</v>
+        <v/>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>480</v>
+        <v/>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>480</v>
+        <v/>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>480</v>
+        <v/>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>480</v>
+        <v/>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>480</v>
+        <v/>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>480</v>
+        <v/>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>480</v>
+        <v/>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>480</v>
+        <v/>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>480</v>
+        <v/>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>480</v>
+        <v/>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>480</v>
+        <v/>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>9731.010833333334</v>
+        <v>9322.3475</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>9583.997499999999</v>
+        <v>9289.930833333334</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9500,49 +9500,49 @@
         <v/>
       </c>
       <c r="U15" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v/>
+        <v>2981</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>9521.990833333333</v>
+        <v>9275.047500000001</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9627,46 +9627,46 @@
         <v/>
       </c>
       <c r="U16" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="V16" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="W16" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="X16" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>240</v>
+        <v/>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>9486.600833333332</v>
+        <v>9189.557500000001</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>9353.5275</v>
+        <v>9146.147500000001</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>9322.3475</v>
+        <v>9113.990833333333</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>2981</v>
+        <v>430</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>9289.930833333332</v>
+        <v>9074.6775</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10144,37 +10144,37 @@
         <v/>
       </c>
       <c r="T20" s="22" t="n">
-        <v/>
+        <v>250</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>2981</v>
+        <v>250</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>2981</v>
+        <v>250</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>2981</v>
+        <v>250</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>2981</v>
+        <v>250</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>2981</v>
+        <v>250</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>2981</v>
+        <v>250</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>2981</v>
+        <v>250</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>2981</v>
+        <v>430</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>2981</v>
+        <v>430</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>2981</v>
+        <v>430</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v/>
+        <v>100.62</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>9275.047500000001</v>
+        <v>8934.487500000001</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10289,25 +10289,25 @@
         <v/>
       </c>
       <c r="W21" s="22" t="n">
-        <v/>
+        <v>50.59</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v/>
+        <v>50.59</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v/>
+        <v>50.59</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v/>
+        <v>50.59</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v/>
+        <v>100.62</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v/>
+        <v>100.62</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v/>
+        <v>100.62</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>9189.557500000001</v>
+        <v>8869.655833333332</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v/>
+        <v>300.2</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>9146.147500000001</v>
+        <v>8869.655833333332</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10567,13 +10567,13 @@
         <v/>
       </c>
       <c r="Y23" s="22" t="n">
-        <v/>
+        <v>300.2</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v/>
+        <v>300.2</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v/>
+        <v>300.2</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>9113.990833333333</v>
+        <v>8826.259166666667</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>250</v>
+        <v>4614</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>9074.6775</v>
+        <v>8815.279166666667</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10828,22 +10828,22 @@
         <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v>250</v>
+        <v/>
       </c>
       <c r="U25" s="22" t="n">
-        <v>250</v>
+        <v/>
       </c>
       <c r="V25" s="22" t="n">
-        <v>250</v>
+        <v>4400</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>250</v>
+        <v>4400</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>250</v>
+        <v>4614</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>250</v>
+        <v>4614</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>50.59</v>
+        <v>289.92</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>8934.487500000001</v>
+        <v>8785.0975</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10972,13 +10972,13 @@
         <v/>
       </c>
       <c r="V26" s="22" t="n">
-        <v/>
+        <v>289.92</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>50.59</v>
+        <v>289.92</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>50.59</v>
+        <v>289.92</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>8869.655833333332</v>
+        <v>8688.169166666668</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v/>
+        <v>1480</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>8869.655833333334</v>
+        <v>8691.602499999999</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11245,10 +11245,10 @@
         <v/>
       </c>
       <c r="U28" s="22" t="n">
-        <v/>
+        <v>740</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v/>
+        <v>1480</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v/>
+        <v>420</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>8826.259166666667</v>
+        <v>8477.734166666667</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>55</v>
@@ -11380,10 +11380,10 @@
         <v/>
       </c>
       <c r="T29" s="22" t="n">
-        <v/>
+        <v>420</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v/>
+        <v>420</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>8815.279166666667</v>
+        <v>8412.734166666665</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>50</v>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>8785.0975</v>
+        <v>8266.247499999999</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>50</v>
